--- a/data/nzd0349/nzd0349.xlsx
+++ b/data/nzd0349/nzd0349.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V304"/>
+  <dimension ref="A1:V308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21030,6 +21030,294 @@
         </is>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>375.52</v>
+      </c>
+      <c r="C305" t="n">
+        <v>360.1266666666667</v>
+      </c>
+      <c r="D305" t="n">
+        <v>361.5466666666667</v>
+      </c>
+      <c r="E305" t="n">
+        <v>368.0066666666667</v>
+      </c>
+      <c r="F305" t="n">
+        <v>364.95</v>
+      </c>
+      <c r="G305" t="n">
+        <v>334.07</v>
+      </c>
+      <c r="H305" t="n">
+        <v>335.2657142857143</v>
+      </c>
+      <c r="I305" t="n">
+        <v>336.3257142857143</v>
+      </c>
+      <c r="J305" t="n">
+        <v>338.8357142857143</v>
+      </c>
+      <c r="K305" t="n">
+        <v>334.4857142857143</v>
+      </c>
+      <c r="L305" t="n">
+        <v>340.4657142857143</v>
+      </c>
+      <c r="M305" t="n">
+        <v>338.5157142857143</v>
+      </c>
+      <c r="N305" t="n">
+        <v>327.51</v>
+      </c>
+      <c r="O305" t="n">
+        <v>331.94</v>
+      </c>
+      <c r="P305" t="n">
+        <v>336.0377777777778</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>341.46</v>
+      </c>
+      <c r="R305" t="n">
+        <v>333.93</v>
+      </c>
+      <c r="S305" t="n">
+        <v>336.09</v>
+      </c>
+      <c r="T305" t="n">
+        <v>341.5677777777778</v>
+      </c>
+      <c r="U305" t="n">
+        <v>345.1377777777778</v>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:01:03+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>355.07</v>
+      </c>
+      <c r="C306" t="n">
+        <v>349.22</v>
+      </c>
+      <c r="D306" t="n">
+        <v>348.23</v>
+      </c>
+      <c r="E306" t="n">
+        <v>355.33</v>
+      </c>
+      <c r="F306" t="n">
+        <v>353.17</v>
+      </c>
+      <c r="G306" t="n">
+        <v>343.1</v>
+      </c>
+      <c r="H306" t="n">
+        <v>327.9957142857143</v>
+      </c>
+      <c r="I306" t="n">
+        <v>324.7357142857143</v>
+      </c>
+      <c r="J306" t="n">
+        <v>329.5757142857143</v>
+      </c>
+      <c r="K306" t="n">
+        <v>329.1957142857143</v>
+      </c>
+      <c r="L306" t="n">
+        <v>338.6857142857143</v>
+      </c>
+      <c r="M306" t="n">
+        <v>347.0657142857143</v>
+      </c>
+      <c r="N306" t="n">
+        <v>335.59</v>
+      </c>
+      <c r="O306" t="n">
+        <v>335.37</v>
+      </c>
+      <c r="P306" t="n">
+        <v>335.9466666666667</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="R306" t="n">
+        <v>323.1</v>
+      </c>
+      <c r="S306" t="n">
+        <v>333.07</v>
+      </c>
+      <c r="T306" t="n">
+        <v>343.0066666666667</v>
+      </c>
+      <c r="U306" t="n">
+        <v>338.9366666666667</v>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>357.47</v>
+      </c>
+      <c r="C307" t="n">
+        <v>345.56</v>
+      </c>
+      <c r="D307" t="n">
+        <v>339.46</v>
+      </c>
+      <c r="E307" t="n">
+        <v>347.45</v>
+      </c>
+      <c r="F307" t="n">
+        <v>343.29</v>
+      </c>
+      <c r="G307" t="n">
+        <v>339.22</v>
+      </c>
+      <c r="H307" t="n">
+        <v>329.13</v>
+      </c>
+      <c r="I307" t="n">
+        <v>326.92</v>
+      </c>
+      <c r="J307" t="n">
+        <v>328.49</v>
+      </c>
+      <c r="K307" t="n">
+        <v>329.26</v>
+      </c>
+      <c r="L307" t="n">
+        <v>334.29</v>
+      </c>
+      <c r="M307" t="n">
+        <v>330.83</v>
+      </c>
+      <c r="N307" t="n">
+        <v>327.89</v>
+      </c>
+      <c r="O307" t="n">
+        <v>320.31</v>
+      </c>
+      <c r="P307" t="n">
+        <v>325.3166666666667</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>327.04</v>
+      </c>
+      <c r="R307" t="n">
+        <v>323.43</v>
+      </c>
+      <c r="S307" t="n">
+        <v>334.55</v>
+      </c>
+      <c r="T307" t="n">
+        <v>344.4766666666667</v>
+      </c>
+      <c r="U307" t="n">
+        <v>343.6566666666667</v>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>370.36</v>
+      </c>
+      <c r="C308" t="n">
+        <v>357.71</v>
+      </c>
+      <c r="D308" t="n">
+        <v>355.77</v>
+      </c>
+      <c r="E308" t="n">
+        <v>368.66</v>
+      </c>
+      <c r="F308" t="n">
+        <v>358.45</v>
+      </c>
+      <c r="G308" t="n">
+        <v>340.46</v>
+      </c>
+      <c r="H308" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="I308" t="n">
+        <v>332.25</v>
+      </c>
+      <c r="J308" t="n">
+        <v>343.7</v>
+      </c>
+      <c r="K308" t="n">
+        <v>341.69</v>
+      </c>
+      <c r="L308" t="n">
+        <v>342.47</v>
+      </c>
+      <c r="M308" t="n">
+        <v>340</v>
+      </c>
+      <c r="N308" t="n">
+        <v>345.96</v>
+      </c>
+      <c r="O308" t="n">
+        <v>344.18</v>
+      </c>
+      <c r="P308" t="n">
+        <v>347.8366666666667</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>343.7</v>
+      </c>
+      <c r="R308" t="n">
+        <v>331.36</v>
+      </c>
+      <c r="S308" t="n">
+        <v>337.77</v>
+      </c>
+      <c r="T308" t="n">
+        <v>353.0466666666667</v>
+      </c>
+      <c r="U308" t="n">
+        <v>352.0666666666667</v>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21041,7 +21329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24119,6 +24407,46 @@
       </c>
       <c r="B307" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -24287,28 +24615,28 @@
         <v>0.0266</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4252969700738794</v>
+        <v>-0.4179954605778687</v>
       </c>
       <c r="J2" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K2" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09266673814760962</v>
+        <v>0.0911461813848452</v>
       </c>
       <c r="M2" t="n">
-        <v>7.629075187966937</v>
+        <v>7.642259427085052</v>
       </c>
       <c r="N2" t="n">
-        <v>93.28682950995977</v>
+        <v>93.09223597770672</v>
       </c>
       <c r="O2" t="n">
-        <v>9.658510729401286</v>
+        <v>9.648431788519144</v>
       </c>
       <c r="P2" t="n">
-        <v>372.7407750957316</v>
+        <v>372.6686822329693</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24364,28 +24692,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3834573601953333</v>
+        <v>-0.3725159761856595</v>
       </c>
       <c r="J3" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07715277323518355</v>
+        <v>0.07455325774254906</v>
       </c>
       <c r="M3" t="n">
-        <v>7.553071721653518</v>
+        <v>7.530412591849737</v>
       </c>
       <c r="N3" t="n">
-        <v>93.74602492141778</v>
+        <v>93.10919381139699</v>
       </c>
       <c r="O3" t="n">
-        <v>9.682253091167251</v>
+        <v>9.649310535545894</v>
       </c>
       <c r="P3" t="n">
-        <v>358.8878190307659</v>
+        <v>358.7804599023836</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24441,28 +24769,28 @@
         <v>0.0312</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4278006911991238</v>
+        <v>-0.4202143887030012</v>
       </c>
       <c r="J4" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K4" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09265238331922854</v>
+        <v>0.09112524215271955</v>
       </c>
       <c r="M4" t="n">
-        <v>7.607332108489684</v>
+        <v>7.606825102172798</v>
       </c>
       <c r="N4" t="n">
-        <v>96.12596934568698</v>
+        <v>95.81791125521698</v>
       </c>
       <c r="O4" t="n">
-        <v>9.804385209980634</v>
+        <v>9.788662383350291</v>
       </c>
       <c r="P4" t="n">
-        <v>359.3362219877841</v>
+        <v>359.2625138932363</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24518,28 +24846,28 @@
         <v>0.0319</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4808150423700024</v>
+        <v>-0.4669670548927381</v>
       </c>
       <c r="J5" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K5" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09556957798938281</v>
+        <v>0.09194797721246983</v>
       </c>
       <c r="M5" t="n">
-        <v>8.679799574332428</v>
+        <v>8.679298598365554</v>
       </c>
       <c r="N5" t="n">
-        <v>116.0941749046197</v>
+        <v>115.9028780825621</v>
       </c>
       <c r="O5" t="n">
-        <v>10.77470068747247</v>
+        <v>10.76581989829674</v>
       </c>
       <c r="P5" t="n">
-        <v>367.048444062836</v>
+        <v>366.9121771593132</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24595,28 +24923,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4155860362638373</v>
+        <v>-0.4086472988994209</v>
       </c>
       <c r="J6" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K6" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07545696678762381</v>
+        <v>0.07450273486947301</v>
       </c>
       <c r="M6" t="n">
-        <v>8.497000837017449</v>
+        <v>8.475046081648273</v>
       </c>
       <c r="N6" t="n">
-        <v>111.201740118862</v>
+        <v>110.5758725836789</v>
       </c>
       <c r="O6" t="n">
-        <v>10.54522356893689</v>
+        <v>10.51550629231322</v>
       </c>
       <c r="P6" t="n">
-        <v>362.9581124963943</v>
+        <v>362.8898523571562</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24672,28 +25000,28 @@
         <v>0.0429</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4168595759916265</v>
+        <v>-0.3971162386087891</v>
       </c>
       <c r="J7" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05750839981366773</v>
+        <v>0.05365078146581914</v>
       </c>
       <c r="M7" t="n">
-        <v>9.430154162380596</v>
+        <v>9.396313804646113</v>
       </c>
       <c r="N7" t="n">
-        <v>151.4235837263078</v>
+        <v>150.1217919657142</v>
       </c>
       <c r="O7" t="n">
-        <v>12.30542903462971</v>
+        <v>12.25241984122786</v>
       </c>
       <c r="P7" t="n">
-        <v>342.5687842898761</v>
+        <v>342.376735948711</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24749,28 +25077,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4859841906552716</v>
+        <v>-0.4720298222303766</v>
       </c>
       <c r="J8" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K8" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09242933071232107</v>
+        <v>0.08970123723177603</v>
       </c>
       <c r="M8" t="n">
-        <v>8.261789782420797</v>
+        <v>8.205896225071715</v>
       </c>
       <c r="N8" t="n">
-        <v>121.4127200576259</v>
+        <v>120.1686432632772</v>
       </c>
       <c r="O8" t="n">
-        <v>11.01874403267568</v>
+        <v>10.9621459241919</v>
       </c>
       <c r="P8" t="n">
-        <v>339.2090241284437</v>
+        <v>339.0715959098645</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24826,28 +25154,28 @@
         <v>0.0409</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4753090520949094</v>
+        <v>-0.4742833481643087</v>
       </c>
       <c r="J9" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K9" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0900214062794974</v>
+        <v>0.09187786551371069</v>
       </c>
       <c r="M9" t="n">
-        <v>8.401067012865193</v>
+        <v>8.339429300905289</v>
       </c>
       <c r="N9" t="n">
-        <v>118.5295823202209</v>
+        <v>117.1007406512831</v>
       </c>
       <c r="O9" t="n">
-        <v>10.88712920471787</v>
+        <v>10.82130956267693</v>
       </c>
       <c r="P9" t="n">
-        <v>341.7104039490887</v>
+        <v>341.7002510060898</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24903,28 +25231,28 @@
         <v>0.0401</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5772190275257317</v>
+        <v>-0.5670827415867371</v>
       </c>
       <c r="J10" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K10" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1389713545077282</v>
+        <v>0.1372061019192267</v>
       </c>
       <c r="M10" t="n">
-        <v>8.083592906853642</v>
+        <v>8.049933654425638</v>
       </c>
       <c r="N10" t="n">
-        <v>107.948823913844</v>
+        <v>107.1686352104525</v>
       </c>
       <c r="O10" t="n">
-        <v>10.3898423430697</v>
+        <v>10.35222851421145</v>
       </c>
       <c r="P10" t="n">
-        <v>346.0351213145344</v>
+        <v>345.9334918329115</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -24980,28 +25308,28 @@
         <v>0.0402</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6712889395694911</v>
+        <v>-0.6593705233214255</v>
       </c>
       <c r="J11" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K11" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1977875020414132</v>
+        <v>0.1954705701976515</v>
       </c>
       <c r="M11" t="n">
-        <v>7.611797368809436</v>
+        <v>7.564312465928371</v>
       </c>
       <c r="N11" t="n">
-        <v>96.63029101823962</v>
+        <v>95.88222043939865</v>
       </c>
       <c r="O11" t="n">
-        <v>9.830070753470681</v>
+        <v>9.791946713468096</v>
       </c>
       <c r="P11" t="n">
-        <v>346.2528128205338</v>
+        <v>346.1342887243111</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -25057,28 +25385,28 @@
         <v>0.039</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7279291947087831</v>
+        <v>-0.7099697179118558</v>
       </c>
       <c r="J12" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K12" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2124714477192812</v>
+        <v>0.2076563237215278</v>
       </c>
       <c r="M12" t="n">
-        <v>7.976894687975674</v>
+        <v>7.95621872331498</v>
       </c>
       <c r="N12" t="n">
-        <v>104.0774090881435</v>
+        <v>103.2771810201678</v>
       </c>
       <c r="O12" t="n">
-        <v>10.20183361401976</v>
+        <v>10.16253811900196</v>
       </c>
       <c r="P12" t="n">
-        <v>350.849318314237</v>
+        <v>350.6707624039238</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -25134,28 +25462,28 @@
         <v>0.0427</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7453936468568479</v>
+        <v>-0.721264965041115</v>
       </c>
       <c r="J13" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K13" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2174551923129091</v>
+        <v>0.2086591283138428</v>
       </c>
       <c r="M13" t="n">
-        <v>8.155396221683819</v>
+        <v>8.166653958569185</v>
       </c>
       <c r="N13" t="n">
-        <v>105.3583059190261</v>
+        <v>105.347883095959</v>
       </c>
       <c r="O13" t="n">
-        <v>10.26441941461017</v>
+        <v>10.26391168590022</v>
       </c>
       <c r="P13" t="n">
-        <v>349.2948751207642</v>
+        <v>349.0538656136914</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -25211,28 +25539,28 @@
         <v>0.0438</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7471817923984166</v>
+        <v>-0.7168113672859081</v>
       </c>
       <c r="J14" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K14" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2370217101694322</v>
+        <v>0.2226551996576349</v>
       </c>
       <c r="M14" t="n">
-        <v>7.52963477433301</v>
+        <v>7.571488793294004</v>
       </c>
       <c r="N14" t="n">
-        <v>94.99340395006826</v>
+        <v>96.086462539436</v>
       </c>
       <c r="O14" t="n">
-        <v>9.746455968713359</v>
+        <v>9.802370251089069</v>
       </c>
       <c r="P14" t="n">
-        <v>342.4465267662375</v>
+        <v>342.1421979424186</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -25288,28 +25616,28 @@
         <v>0.0432</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7272837899425518</v>
+        <v>-0.6870429447587606</v>
       </c>
       <c r="J15" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K15" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2190608583829378</v>
+        <v>0.1984524475745187</v>
       </c>
       <c r="M15" t="n">
-        <v>7.83743264143803</v>
+        <v>7.917678311502219</v>
       </c>
       <c r="N15" t="n">
-        <v>99.7089073895462</v>
+        <v>102.2161554330954</v>
       </c>
       <c r="O15" t="n">
-        <v>9.985434762169657</v>
+        <v>10.11020056344558</v>
       </c>
       <c r="P15" t="n">
-        <v>337.2710047351349</v>
+        <v>336.8704859651687</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -25365,28 +25693,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7196319602523229</v>
+        <v>-0.6930218717092943</v>
       </c>
       <c r="J16" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K16" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2135053761422484</v>
+        <v>0.2022625149916718</v>
       </c>
       <c r="M16" t="n">
-        <v>7.760219631785717</v>
+        <v>7.799922293008104</v>
       </c>
       <c r="N16" t="n">
-        <v>99.99370742704575</v>
+        <v>100.745183954423</v>
       </c>
       <c r="O16" t="n">
-        <v>9.999685366402572</v>
+        <v>10.03719004275714</v>
       </c>
       <c r="P16" t="n">
-        <v>344.8695380777068</v>
+        <v>344.60662217621</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -25442,28 +25770,28 @@
         <v>0.0462</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5185717343588151</v>
+        <v>-0.5020307866959146</v>
       </c>
       <c r="J17" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K17" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1376627463267994</v>
+        <v>0.131986960587188</v>
       </c>
       <c r="M17" t="n">
-        <v>7.224824062899184</v>
+        <v>7.234559004504479</v>
       </c>
       <c r="N17" t="n">
-        <v>86.42950672896924</v>
+        <v>86.28798401337596</v>
       </c>
       <c r="O17" t="n">
-        <v>9.296747104711908</v>
+        <v>9.289132575939261</v>
       </c>
       <c r="P17" t="n">
-        <v>344.2405526573673</v>
+        <v>344.0753235591706</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -25519,28 +25847,28 @@
         <v>0.0443</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5303724994715684</v>
+        <v>-0.5331115747632169</v>
       </c>
       <c r="J18" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K18" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1581415056179059</v>
+        <v>0.162709299778111</v>
       </c>
       <c r="M18" t="n">
-        <v>6.944235841848349</v>
+        <v>6.911973924314396</v>
       </c>
       <c r="N18" t="n">
-        <v>78.59226587035816</v>
+        <v>77.81200702360246</v>
       </c>
       <c r="O18" t="n">
-        <v>8.865227908540094</v>
+        <v>8.82111143924633</v>
       </c>
       <c r="P18" t="n">
-        <v>342.3815217734704</v>
+        <v>342.4087780911761</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -25596,28 +25924,28 @@
         <v>0.0432</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5536933049100429</v>
+        <v>-0.5351916713895312</v>
       </c>
       <c r="J19" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K19" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1948436687590213</v>
+        <v>0.1868666723090223</v>
       </c>
       <c r="M19" t="n">
-        <v>6.398312392471165</v>
+        <v>6.411547743677005</v>
       </c>
       <c r="N19" t="n">
-        <v>66.81717569613396</v>
+        <v>66.56639581921915</v>
       </c>
       <c r="O19" t="n">
-        <v>8.174177371218095</v>
+        <v>8.158823188378282</v>
       </c>
       <c r="P19" t="n">
-        <v>342.4317294976875</v>
+        <v>342.2464587630067</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -25673,28 +26001,28 @@
         <v>0.0502</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3796587138915661</v>
+        <v>-0.3641271545085202</v>
       </c>
       <c r="J20" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K20" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1026102174921811</v>
+        <v>0.09654306986445615</v>
       </c>
       <c r="M20" t="n">
-        <v>6.427860369713298</v>
+        <v>6.415655271304949</v>
       </c>
       <c r="N20" t="n">
-        <v>66.36250261714756</v>
+        <v>66.15511897223081</v>
       </c>
       <c r="O20" t="n">
-        <v>8.146318347397649</v>
+        <v>8.13357971450645</v>
       </c>
       <c r="P20" t="n">
-        <v>349.3663792659916</v>
+        <v>349.2103945457479</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -25750,28 +26078,28 @@
         <v>0.0463</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2087596670149338</v>
+        <v>-0.2097507734651263</v>
       </c>
       <c r="J21" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K21" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03233153165892311</v>
+        <v>0.03336391643942926</v>
       </c>
       <c r="M21" t="n">
-        <v>6.390427694808369</v>
+        <v>6.352351399909627</v>
       </c>
       <c r="N21" t="n">
-        <v>68.49022513124955</v>
+        <v>67.83189723896837</v>
       </c>
       <c r="O21" t="n">
-        <v>8.275882136138089</v>
+        <v>8.236012217023987</v>
       </c>
       <c r="P21" t="n">
-        <v>350.6278355311221</v>
+        <v>350.6372753085368</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -25808,7 +26136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V304"/>
+  <dimension ref="A1:V308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57196,6 +57524,454 @@
         </is>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-41.31749225535199,175.8628229247727</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-41.31794667990414,175.86212459993808</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-41.318464324694176,175.86153514673</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-41.31897187058977,175.86095488123752</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-41.31948034189407,175.86037085913912</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-41.319766975974396,175.85947228207465</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-41.32019724498629,175.8587949124565</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-41.320621237347794,175.85810600886194</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>-41.32101749591774,175.85739111350134</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>-41.321327712832606,175.85660911709522</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>-41.321646725508614,175.85583305002433</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>-41.321882012671054,175.8549925180498</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>-41.32204278654675,175.85410736266954</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>-41.32232859574272,175.85330635443123</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>-41.322543834247824,175.85245793863464</t>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>-41.32284314876617,175.85163981846796</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>-41.323119853913006,175.85080130356073</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>-41.32349914736597,175.8500596424235</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>-41.32386214709124,175.8493028111927</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>-41.324263506849654,175.84858010737327</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:01:03+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-41.31738312918858,175.8626262935871</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-41.31788571711308,175.86202252749186</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-41.318383594947505,175.86141761676907</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-41.31889745246401,175.86084014299192</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-41.319411633330645,175.86026373009238</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-41.31982597532925,175.859546443974</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-41.32014723262175,175.85873893065457</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-41.32053874049729,175.8580212994227</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>-41.32094844582742,175.8573291826102</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>-41.32128600373334,175.85657864353917</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>-41.321632115891376,175.85582432343037</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>-41.3219527511889,175.85503273545635</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>-41.32210963674109,175.85414536878758</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>-41.32235760783006,175.85332036490314</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>-41.32254306373854,175.85245756596598</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>-41.32280417816332,175.85161345175237</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>-41.323037467767016,175.8507321726024</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>-41.32347603791447,175.8500406522371</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>-41.32387308497299,175.8493120130325</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>-41.324217839781184,175.8485375283359</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-41.3173959361897,175.86264937007408</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-41.31786525952874,175.86198827461664</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-41.31833042842726,175.86134021484267</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-41.31885119301447,175.86076882016397</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-41.319354006710455,175.86017388009668</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-41.319800624560855,175.85951457815807</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-41.320155035692615,175.85874766508604</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-41.32055428810337,175.8580372639979</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-41.32094034985627,175.85732192136044</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>-41.32128651059527,175.85657901386298</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>-41.32159603740291,175.85580277310288</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>-41.32181842481541,175.85495636613936</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>-41.32204593049188,175.85410915008416</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>-41.32223022529581,175.85325884963407</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>-41.322453167846625,175.85241408650518</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>-41.32272751991911,175.8515615864558</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>-41.32303997814892,175.85073427908327</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>-41.323487363076595,175.85004995868437</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>-41.32388425934856,175.84932141383425</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>-41.32425259945077,175.84856993753138</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-41.317464720373515,175.86277331019238</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-41.31793317195914,175.86210198301367</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-41.31842930477253,175.8614841631094</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-41.31897570596708,175.86096079465398</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-41.31944242971196,175.86031174715868</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-41.31980872635388,175.85952476207592</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-41.32019713688335,175.85879479145035</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-41.32059222669214,175.85807622009946</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-41.32105376797235,175.85742364590342</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>-41.321384515136245,175.8566506181434</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>-41.32166317598355,175.855842876202</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>-41.3218942929263,175.85499949981195</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>-41.32219543331644,175.85419414656016</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>-41.322432125746786,175.8533563510439</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>-41.32264361518575,175.85250619930304</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>-41.32286111052307,175.85165197103916</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>-41.323100303373025,175.8507848985065</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>-41.3235120029533,175.85007020650662</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>-41.3239494051803,175.84937621993424</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>-41.324314533497216,175.84862768366355</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0349/nzd0349.xlsx
+++ b/data/nzd0349/nzd0349.xlsx
@@ -24460,7 +24460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24551,35 +24551,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24638,27 +24643,28 @@
       <c r="P2" t="n">
         <v>372.6686822329693</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.85921232184168 -41.3154883322034, 175.86787031888156 -41.32029320656823)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8592123218417</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.3154883322034</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.8678703188816</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.32029320656823</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8635413203616</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.31789076938581</v>
       </c>
     </row>
@@ -24715,27 +24721,28 @@
       <c r="P3" t="n">
         <v>358.7804599023836</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.8587543747592 -41.31593370117785, 175.86718104158587 -41.32096637795728)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8587543747592</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.31593370117785</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8671810415859</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.32096637795728</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8629677081725</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.31845003956757</v>
       </c>
     </row>
@@ -24792,27 +24799,28 @@
       <c r="P4" t="n">
         <v>359.2625138932363</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.85834431834175 -41.31627247079001, 175.86629042469932 -41.32173038491276)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8583443183418</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.31627247079001</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8662904246993</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.32173038491276</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.8623173715205</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.31900142785139</v>
       </c>
     </row>
@@ -24869,27 +24877,28 @@
       <c r="P5" t="n">
         <v>366.9121771593132</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.85762410817753 -41.316811444224356, 175.86577336805487 -41.322096831092885)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.8576241081775</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.31681144422436</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.8657733680549</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.32209683109289</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8616987381162</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.31945413765862</v>
       </c>
     </row>
@@ -24946,27 +24955,28 @@
       <c r="P6" t="n">
         <v>362.8898523571562</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.85705205426493 -41.31735166786454, 175.86524007563705 -41.32260300988765)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8570520542649</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.31735166786454</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.865240075637</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.32260300988765</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.861146064951</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.3199773388761</v>
       </c>
     </row>
@@ -25023,27 +25033,28 @@
       <c r="P7" t="n">
         <v>342.376735948711</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.85672871467187 -41.31758422415925, 175.8641222618137 -41.32346594978359)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8567287146719</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.31758422415925</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8641222618137</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.32346594978359</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8604254882428</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.32052508697141</v>
       </c>
     </row>
@@ -25100,27 +25111,28 @@
       <c r="P8" t="n">
         <v>339.0715959098645</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.85621332705836 -41.31789082668184, 175.86314504831074 -41.324083189403574)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.8562133270584</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.31789082668184</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.8631450483107</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.32408318940357</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.8596791876845</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.32098700804271</v>
       </c>
     </row>
@@ -25177,27 +25189,28 @@
       <c r="P9" t="n">
         <v>341.7002510060898</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.85564794643776 -41.31822726464355, 175.86222685765534 -41.32463411129018)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.8556479464378</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.31822726464355</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.8622268576553</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.32463411129018</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.8589374020465</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.32143068796687</v>
       </c>
     </row>
@@ -25254,27 +25267,28 @@
       <c r="P10" t="n">
         <v>345.9334918329115</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.85512506654513 -41.31849083634329, 175.86114467336142 -41.32520219350337)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.8551250665451</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.31849083634329</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.8611446733614</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.32520219350337</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.8581348699533</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.32184651492333</v>
       </c>
     </row>
@@ -25331,27 +25345,28 @@
       <c r="P11" t="n">
         <v>346.1342887243111</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.85468235844385 -41.31869043537972, 175.85986672272426 -41.3257860207757)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.8546823584439</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-41.31869043537972</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.8598667227243</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-41.3257860207757</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.8572745405841</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-41.32223822807771</v>
       </c>
     </row>
@@ -25408,27 +25423,28 @@
       <c r="P12" t="n">
         <v>350.6707624039238</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.8541639630305 -41.31885228711018, 175.85857577807855 -41.326238083854086)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.8541639630305</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-41.31885228711018</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.8585757780785</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-41.32623808385409</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.8563698705545</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-41.32254518548213</v>
       </c>
     </row>
@@ -25485,27 +25501,28 @@
       <c r="P13" t="n">
         <v>349.0538656136914</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.8534002839701 -41.31908128506173, 175.85763312981436 -41.32652621684284)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.8534002839701</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-41.31908128506173</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.8576331298144</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-41.32652621684284</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.8555167068922</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-41.32280375095228</v>
       </c>
     </row>
@@ -25562,27 +25579,28 @@
       <c r="P14" t="n">
         <v>342.1421979424186</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.8525669130163 -41.3193331065644, 175.85679970922678 -41.326778051115745)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.8525669130163</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-41.3193331065644</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.8567997092268</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-41.32677805111575</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.8546833111215</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-41.32305557884007</v>
       </c>
     </row>
@@ -25639,27 +25657,28 @@
       <c r="P15" t="n">
         <v>336.8704859651687</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.85195054573137 -41.31952092560898, 175.85562610128795 -41.32713179604114)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.8519505457314</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-41.31952092560898</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.855626101288</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-41.32713179604114</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.8537883235097</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-41.32332636082506</v>
       </c>
     </row>
@@ -25716,27 +25735,28 @@
       <c r="P16" t="n">
         <v>344.60662217621</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.85108351764842 -41.319702016148504, 175.8547640897605 -41.32731150991059)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.8510835176484</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-41.3197020161485</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.8547640897605</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-41.32731150991059</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.8529238037045</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-41.32350676302954</v>
       </c>
     </row>
@@ -25793,27 +25813,28 @@
       <c r="P17" t="n">
         <v>344.0753235591706</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.84978739146555 -41.32010508533888, 175.8546697498709 -41.32732108819772)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.8497873914656</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-41.32010508533888</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.8546697498709</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-41.32732108819772</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.8522285706682</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-41.3237130867683</v>
       </c>
     </row>
@@ -25870,27 +25891,28 @@
       <c r="P18" t="n">
         <v>342.4087780911761</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.84866981558486 -41.32057955420218, 175.85441490260314 -41.3274259630554)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.8486698155849</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-41.32057955420218</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.8544149026031</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-41.3274259630554</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.851542359094</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-41.32400275862879</v>
       </c>
     </row>
@@ -25947,27 +25969,28 @@
       <c r="P19" t="n">
         <v>342.2464587630067</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.84794634525574 -41.320927318491485, 175.85360572461596 -41.3278140729783)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.8479463452557</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-41.32092731849148</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.853605724616</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-41.3278140729783</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.8507760349358</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-41.32437069573489</v>
       </c>
     </row>
@@ -26024,27 +26047,28 @@
       <c r="P20" t="n">
         <v>349.2103945457479</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.84711853968778 -41.321265655630775, 175.85287423081812 -41.32810701475691)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.8471185396878</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-41.32126565563077</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.8528742308181</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-41.32810701475691</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.849996385253</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-41.32468633519385</v>
       </c>
     </row>
@@ -26101,27 +26125,28 @@
       <c r="P21" t="n">
         <v>350.6372753085368</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.8462103604148 -41.321721768760646, 175.85239051066492 -41.328349923035205)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.8462103604148</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-41.32172176876065</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.8523905106649</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-41.3283499230352</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.8493004355399</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-41.32503584589793</v>
       </c>
     </row>

--- a/data/nzd0349/nzd0349.xlsx
+++ b/data/nzd0349/nzd0349.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V308"/>
+  <dimension ref="A1:V309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21318,6 +21318,78 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:55+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>367.55</v>
+      </c>
+      <c r="C309" t="n">
+        <v>353.7133333333333</v>
+      </c>
+      <c r="D309" t="n">
+        <v>354.5933333333333</v>
+      </c>
+      <c r="E309" t="n">
+        <v>363.6633333333333</v>
+      </c>
+      <c r="F309" t="n">
+        <v>358.52</v>
+      </c>
+      <c r="G309" t="n">
+        <v>346.82</v>
+      </c>
+      <c r="H309" t="n">
+        <v>341.3914285714285</v>
+      </c>
+      <c r="I309" t="n">
+        <v>343.0014285714286</v>
+      </c>
+      <c r="J309" t="n">
+        <v>349.5214285714285</v>
+      </c>
+      <c r="K309" t="n">
+        <v>341.8614285714286</v>
+      </c>
+      <c r="L309" t="n">
+        <v>337.4014285714285</v>
+      </c>
+      <c r="M309" t="n">
+        <v>330.2514285714286</v>
+      </c>
+      <c r="N309" t="n">
+        <v>324.26</v>
+      </c>
+      <c r="O309" t="n">
+        <v>330.48</v>
+      </c>
+      <c r="P309" t="n">
+        <v>342.3422222222222</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>346.45</v>
+      </c>
+      <c r="R309" t="n">
+        <v>348.28</v>
+      </c>
+      <c r="S309" t="n">
+        <v>340.94</v>
+      </c>
+      <c r="T309" t="n">
+        <v>346.1322222222223</v>
+      </c>
+      <c r="U309" t="n">
+        <v>350.0222222222222</v>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21329,7 +21401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24447,6 +24519,16 @@
       </c>
       <c r="B311" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>
@@ -24620,28 +24702,28 @@
         <v>0.0266</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4179954605778687</v>
+        <v>-0.4140683904861221</v>
       </c>
       <c r="J2" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0911461813848452</v>
+        <v>0.09009824383256526</v>
       </c>
       <c r="M2" t="n">
-        <v>7.642259427085052</v>
+        <v>7.635894517077205</v>
       </c>
       <c r="N2" t="n">
-        <v>93.09223597770672</v>
+        <v>92.86308612028967</v>
       </c>
       <c r="O2" t="n">
-        <v>9.648431788519144</v>
+        <v>9.636549492442285</v>
       </c>
       <c r="P2" t="n">
-        <v>372.6686822329693</v>
+        <v>372.6293808352384</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24698,28 +24780,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3725159761856595</v>
+        <v>-0.3694002394299694</v>
       </c>
       <c r="J3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07455325774254906</v>
+        <v>0.07384745694084927</v>
       </c>
       <c r="M3" t="n">
-        <v>7.530412591849737</v>
+        <v>7.520148558821304</v>
       </c>
       <c r="N3" t="n">
-        <v>93.10919381139699</v>
+        <v>92.83877349923721</v>
       </c>
       <c r="O3" t="n">
-        <v>9.649310535545894</v>
+        <v>9.635287930271581</v>
       </c>
       <c r="P3" t="n">
-        <v>358.7804599023836</v>
+        <v>358.7494509274225</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24776,28 +24858,28 @@
         <v>0.0312</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4202143887030012</v>
+        <v>-0.4159135238284331</v>
       </c>
       <c r="J4" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09112524215271955</v>
+        <v>0.08992529752046974</v>
       </c>
       <c r="M4" t="n">
-        <v>7.606825102172798</v>
+        <v>7.602296824054358</v>
       </c>
       <c r="N4" t="n">
-        <v>95.81791125521698</v>
+        <v>95.59600305341466</v>
       </c>
       <c r="O4" t="n">
-        <v>9.788662383350291</v>
+        <v>9.777320852534945</v>
       </c>
       <c r="P4" t="n">
-        <v>359.2625138932363</v>
+        <v>359.2199478491445</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24854,28 +24936,28 @@
         <v>0.0319</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4669670548927381</v>
+        <v>-0.4608390211945929</v>
       </c>
       <c r="J5" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09194797721246983</v>
+        <v>0.09017341568772919</v>
       </c>
       <c r="M5" t="n">
-        <v>8.679298598365554</v>
+        <v>8.679024207479429</v>
       </c>
       <c r="N5" t="n">
-        <v>115.9028780825621</v>
+        <v>115.7499545574564</v>
       </c>
       <c r="O5" t="n">
-        <v>10.76581989829674</v>
+        <v>10.7587152837807</v>
       </c>
       <c r="P5" t="n">
-        <v>366.9121771593132</v>
+        <v>366.8510497035174</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24932,28 +25014,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4086472988994209</v>
+        <v>-0.4043581933317538</v>
       </c>
       <c r="J6" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07450273486947301</v>
+        <v>0.07347794409929875</v>
       </c>
       <c r="M6" t="n">
-        <v>8.475046081648273</v>
+        <v>8.465349276698971</v>
       </c>
       <c r="N6" t="n">
-        <v>110.5758725836789</v>
+        <v>110.3041602378362</v>
       </c>
       <c r="O6" t="n">
-        <v>10.51550629231322</v>
+        <v>10.50257874228212</v>
       </c>
       <c r="P6" t="n">
-        <v>362.8898523571562</v>
+        <v>362.8468273766371</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25010,28 +25092,28 @@
         <v>0.0429</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3971162386087891</v>
+        <v>-0.3869860645106268</v>
       </c>
       <c r="J7" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05365078146581914</v>
+        <v>0.05120322467702398</v>
       </c>
       <c r="M7" t="n">
-        <v>9.396313804646113</v>
+        <v>9.414473764670715</v>
       </c>
       <c r="N7" t="n">
-        <v>150.1217919657142</v>
+        <v>150.3363246901378</v>
       </c>
       <c r="O7" t="n">
-        <v>12.25241984122786</v>
+        <v>12.26117142405806</v>
       </c>
       <c r="P7" t="n">
-        <v>342.376735948711</v>
+        <v>342.2770386098199</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25088,28 +25170,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4720298222303766</v>
+        <v>-0.4618672462300904</v>
       </c>
       <c r="J8" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K8" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08970123723177603</v>
+        <v>0.08631592474962813</v>
       </c>
       <c r="M8" t="n">
-        <v>8.205896225071715</v>
+        <v>8.221498838259555</v>
       </c>
       <c r="N8" t="n">
-        <v>120.1686432632772</v>
+        <v>120.4714940528125</v>
       </c>
       <c r="O8" t="n">
-        <v>10.9621459241919</v>
+        <v>10.97595071293656</v>
       </c>
       <c r="P8" t="n">
-        <v>339.0715959098645</v>
+        <v>338.9703252460667</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25166,28 +25248,28 @@
         <v>0.0409</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4742833481643087</v>
+        <v>-0.4647349429118317</v>
       </c>
       <c r="J9" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K9" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09187786551371069</v>
+        <v>0.08869261790740035</v>
       </c>
       <c r="M9" t="n">
-        <v>8.339429300905289</v>
+        <v>8.350733452984874</v>
       </c>
       <c r="N9" t="n">
-        <v>117.1007406512831</v>
+        <v>117.3220060937409</v>
       </c>
       <c r="O9" t="n">
-        <v>10.82130956267693</v>
+        <v>10.83152833600785</v>
       </c>
       <c r="P9" t="n">
-        <v>341.7002510060898</v>
+        <v>341.6039925994788</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25244,28 +25326,28 @@
         <v>0.0401</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5670827415867371</v>
+        <v>-0.554634834784177</v>
       </c>
       <c r="J10" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K10" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1372061019192267</v>
+        <v>0.1316050552837806</v>
       </c>
       <c r="M10" t="n">
-        <v>8.049933654425638</v>
+        <v>8.079976060007899</v>
       </c>
       <c r="N10" t="n">
-        <v>107.1686352104525</v>
+        <v>107.9452831124778</v>
       </c>
       <c r="O10" t="n">
-        <v>10.35222851421145</v>
+        <v>10.38967194441084</v>
       </c>
       <c r="P10" t="n">
-        <v>345.9334918329115</v>
+        <v>345.807359374946</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25322,28 +25404,28 @@
         <v>0.0402</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6593705233214255</v>
+        <v>-0.6507565641408566</v>
       </c>
       <c r="J11" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K11" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1954705701976515</v>
+        <v>0.1915547018215209</v>
       </c>
       <c r="M11" t="n">
-        <v>7.564312465928371</v>
+        <v>7.581895303053917</v>
       </c>
       <c r="N11" t="n">
-        <v>95.88222043939865</v>
+        <v>96.09934177891263</v>
       </c>
       <c r="O11" t="n">
-        <v>9.791946713468096</v>
+        <v>9.803027174241262</v>
       </c>
       <c r="P11" t="n">
-        <v>346.1342887243111</v>
+        <v>346.0477621012471</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25400,28 +25482,28 @@
         <v>0.039</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7099697179118558</v>
+        <v>-0.7065850734589658</v>
       </c>
       <c r="J12" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2076563237215278</v>
+        <v>0.2071189902707291</v>
       </c>
       <c r="M12" t="n">
-        <v>7.95621872331498</v>
+        <v>7.945084223620944</v>
       </c>
       <c r="N12" t="n">
-        <v>103.2771810201678</v>
+        <v>102.9823867259484</v>
       </c>
       <c r="O12" t="n">
-        <v>10.16253811900196</v>
+        <v>10.14802378426206</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6707624039238</v>
+        <v>350.6366682351756</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25478,28 +25560,28 @@
         <v>0.0427</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.721264965041115</v>
+        <v>-0.721535720138737</v>
       </c>
       <c r="J13" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K13" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2086591283138428</v>
+        <v>0.2099744613243505</v>
       </c>
       <c r="M13" t="n">
-        <v>8.166653958569185</v>
+        <v>8.137312105691459</v>
       </c>
       <c r="N13" t="n">
-        <v>105.347883095959</v>
+        <v>104.9523818420879</v>
       </c>
       <c r="O13" t="n">
-        <v>10.26391168590022</v>
+        <v>10.24462697427719</v>
       </c>
       <c r="P13" t="n">
-        <v>349.0538656136914</v>
+        <v>349.0566101234733</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25556,28 +25638,28 @@
         <v>0.0438</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7168113672859081</v>
+        <v>-0.7165070106219812</v>
       </c>
       <c r="J14" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K14" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2226551996576349</v>
+        <v>0.2237681370044408</v>
       </c>
       <c r="M14" t="n">
-        <v>7.571488793294004</v>
+        <v>7.544046551094451</v>
       </c>
       <c r="N14" t="n">
-        <v>96.086462539436</v>
+        <v>95.7189970405189</v>
       </c>
       <c r="O14" t="n">
-        <v>9.802370251089069</v>
+        <v>9.783608589907862</v>
       </c>
       <c r="P14" t="n">
-        <v>342.1421979424186</v>
+        <v>342.1391136925143</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25634,28 +25716,28 @@
         <v>0.0432</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6870429447587606</v>
+        <v>-0.6789673785112093</v>
       </c>
       <c r="J15" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K15" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1984524475745187</v>
+        <v>0.1951563494923504</v>
       </c>
       <c r="M15" t="n">
-        <v>7.917678311502219</v>
+        <v>7.926799181116092</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2161554330954</v>
+        <v>102.2960035330551</v>
       </c>
       <c r="O15" t="n">
-        <v>10.11020056344558</v>
+        <v>10.11414868058875</v>
       </c>
       <c r="P15" t="n">
-        <v>336.8704859651687</v>
+        <v>336.7890848843401</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25712,28 +25794,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6930218717092943</v>
+        <v>-0.6822225986334051</v>
       </c>
       <c r="J16" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K16" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2022625149916718</v>
+        <v>0.1970780700998296</v>
       </c>
       <c r="M16" t="n">
-        <v>7.799922293008104</v>
+        <v>7.828255570793596</v>
       </c>
       <c r="N16" t="n">
-        <v>100.745183954423</v>
+        <v>101.2286478968063</v>
       </c>
       <c r="O16" t="n">
-        <v>10.03719004275714</v>
+        <v>10.06124484826834</v>
       </c>
       <c r="P16" t="n">
-        <v>344.60662217621</v>
+        <v>344.4986866126868</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25790,28 +25872,28 @@
         <v>0.0462</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5020307866959146</v>
+        <v>-0.4915351956096312</v>
       </c>
       <c r="J17" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K17" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L17" t="n">
-        <v>0.131986960587188</v>
+        <v>0.1270040628938004</v>
       </c>
       <c r="M17" t="n">
-        <v>7.234559004504479</v>
+        <v>7.260863058570592</v>
       </c>
       <c r="N17" t="n">
-        <v>86.28798401337596</v>
+        <v>86.78161973244052</v>
       </c>
       <c r="O17" t="n">
-        <v>9.289132575939261</v>
+        <v>9.315665286625562</v>
       </c>
       <c r="P17" t="n">
-        <v>344.0753235591706</v>
+        <v>343.9691384587523</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25868,28 +25950,28 @@
         <v>0.0443</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5331115747632169</v>
+        <v>-0.5197933806439008</v>
       </c>
       <c r="J18" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K18" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L18" t="n">
-        <v>0.162709299778111</v>
+        <v>0.1546275814811314</v>
       </c>
       <c r="M18" t="n">
-        <v>6.911973924314396</v>
+        <v>6.957344287381235</v>
       </c>
       <c r="N18" t="n">
-        <v>77.81200702360246</v>
+        <v>78.86832682462138</v>
       </c>
       <c r="O18" t="n">
-        <v>8.82111143924633</v>
+        <v>8.880784133432215</v>
       </c>
       <c r="P18" t="n">
-        <v>342.4087780911761</v>
+        <v>342.2748034536068</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25946,28 +26028,28 @@
         <v>0.0432</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5351916713895312</v>
+        <v>-0.5268487212952448</v>
       </c>
       <c r="J19" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K19" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1868666723090223</v>
+        <v>0.181948184757554</v>
       </c>
       <c r="M19" t="n">
-        <v>6.411547743677005</v>
+        <v>6.435563646326456</v>
       </c>
       <c r="N19" t="n">
-        <v>66.56639581921915</v>
+        <v>66.86981922105585</v>
       </c>
       <c r="O19" t="n">
-        <v>8.158823188378282</v>
+        <v>8.177396848695546</v>
       </c>
       <c r="P19" t="n">
-        <v>342.2464587630067</v>
+        <v>342.1618747324374</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26024,28 +26106,28 @@
         <v>0.0502</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3641271545085202</v>
+        <v>-0.3599006472579057</v>
       </c>
       <c r="J20" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K20" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09654306986445615</v>
+        <v>0.09493927003903202</v>
       </c>
       <c r="M20" t="n">
-        <v>6.415655271304949</v>
+        <v>6.414676065764515</v>
       </c>
       <c r="N20" t="n">
-        <v>66.15511897223081</v>
+        <v>66.05491299076672</v>
       </c>
       <c r="O20" t="n">
-        <v>8.13357971450645</v>
+        <v>8.127417362899898</v>
       </c>
       <c r="P20" t="n">
-        <v>349.2103945457479</v>
+        <v>349.1675351173353</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26102,28 +26184,28 @@
         <v>0.0463</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2097507734651263</v>
+        <v>-0.2065164467067926</v>
       </c>
       <c r="J21" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K21" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03336391643942926</v>
+        <v>0.03256007234585434</v>
       </c>
       <c r="M21" t="n">
-        <v>6.352351399909627</v>
+        <v>6.348454440413383</v>
       </c>
       <c r="N21" t="n">
-        <v>67.83189723896837</v>
+        <v>67.66967256592297</v>
       </c>
       <c r="O21" t="n">
-        <v>8.236012217023987</v>
+        <v>8.22615782525007</v>
       </c>
       <c r="P21" t="n">
-        <v>350.6372753085368</v>
+        <v>350.6046536989068</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26161,7 +26243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V308"/>
+  <dimension ref="A1:V309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57997,6 +58079,118 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:55+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-41.317449725540335,175.86274629141695</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-41.31791083260236,175.86206457932033</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-41.318422171455985,175.86147377810855</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-41.31894637314963,175.8609155691036</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-41.31944283799719,175.86031238374883</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-41.31985028069598,175.859576995759</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-41.32023938546556,175.85884208288442</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-41.32066875460693,175.8581548006783</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-41.321097177245576,175.8574625797369</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-41.32138586676728,175.85665160567666</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-41.32162157492304,175.8558180271183</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-41.32181363799669,175.8549536446695</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-41.32201589754088,175.85409207557808</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-41.32231624657366,175.8533003907941</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-41.32259714972733,175.85248372550984</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>-41.32288316178499,175.85166689049984</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>-41.32322901738395,175.85089290395035</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>-41.32353626021918,175.85009013993695</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>-41.32389684424517,175.84933200128685</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>-41.324299477529145,175.84861364575093</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0349/nzd0349.xlsx
+++ b/data/nzd0349/nzd0349.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V309"/>
+  <dimension ref="A1:V311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21390,6 +21390,150 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:25+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>365.34</v>
+      </c>
+      <c r="C310" t="n">
+        <v>348.1366666666667</v>
+      </c>
+      <c r="D310" t="n">
+        <v>346.8966666666667</v>
+      </c>
+      <c r="E310" t="n">
+        <v>352.6966666666667</v>
+      </c>
+      <c r="F310" t="n">
+        <v>354.23</v>
+      </c>
+      <c r="G310" t="n">
+        <v>339.91</v>
+      </c>
+      <c r="H310" t="n">
+        <v>332.5128571428572</v>
+      </c>
+      <c r="I310" t="n">
+        <v>334.3828571428572</v>
+      </c>
+      <c r="J310" t="n">
+        <v>329.7228571428572</v>
+      </c>
+      <c r="K310" t="n">
+        <v>325.5828571428572</v>
+      </c>
+      <c r="L310" t="n">
+        <v>325.1028571428571</v>
+      </c>
+      <c r="M310" t="n">
+        <v>320.1528571428572</v>
+      </c>
+      <c r="N310" t="n">
+        <v>317.42</v>
+      </c>
+      <c r="O310" t="n">
+        <v>316.78</v>
+      </c>
+      <c r="P310" t="n">
+        <v>331.1911111111111</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="R310" t="n">
+        <v>337.08</v>
+      </c>
+      <c r="S310" t="n">
+        <v>337.57</v>
+      </c>
+      <c r="T310" t="n">
+        <v>340.9411111111111</v>
+      </c>
+      <c r="U310" t="n">
+        <v>347.8311111111111</v>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>369</v>
+      </c>
+      <c r="C311" t="n">
+        <v>351.74</v>
+      </c>
+      <c r="D311" t="n">
+        <v>352.82</v>
+      </c>
+      <c r="E311" t="n">
+        <v>356.6</v>
+      </c>
+      <c r="F311" t="n">
+        <v>361.79</v>
+      </c>
+      <c r="G311" t="n">
+        <v>341.46</v>
+      </c>
+      <c r="H311" t="n">
+        <v>334.9885714285714</v>
+      </c>
+      <c r="I311" t="n">
+        <v>337.4385714285714</v>
+      </c>
+      <c r="J311" t="n">
+        <v>333.5285714285715</v>
+      </c>
+      <c r="K311" t="n">
+        <v>328.4285714285714</v>
+      </c>
+      <c r="L311" t="n">
+        <v>327.1785714285714</v>
+      </c>
+      <c r="M311" t="n">
+        <v>326.4985714285714</v>
+      </c>
+      <c r="N311" t="n">
+        <v>320.46</v>
+      </c>
+      <c r="O311" t="n">
+        <v>320.34</v>
+      </c>
+      <c r="P311" t="n">
+        <v>333.3466666666667</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>341.44</v>
+      </c>
+      <c r="R311" t="n">
+        <v>337.31</v>
+      </c>
+      <c r="S311" t="n">
+        <v>337.88</v>
+      </c>
+      <c r="T311" t="n">
+        <v>343.2666666666667</v>
+      </c>
+      <c r="U311" t="n">
+        <v>347.7566666666667</v>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21401,7 +21545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24529,6 +24673,26 @@
       </c>
       <c r="B312" t="n">
         <v>-0.26</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -24702,28 +24866,28 @@
         <v>0.0266</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4140683904861221</v>
+        <v>-0.406895114304305</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09009824383256526</v>
+        <v>0.08826019880506031</v>
       </c>
       <c r="M2" t="n">
-        <v>7.635894517077205</v>
+        <v>7.619304911117676</v>
       </c>
       <c r="N2" t="n">
-        <v>92.86308612028967</v>
+        <v>92.40068858671899</v>
       </c>
       <c r="O2" t="n">
-        <v>9.636549492442285</v>
+        <v>9.612527689776451</v>
       </c>
       <c r="P2" t="n">
-        <v>372.6293808352384</v>
+        <v>372.557304496453</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24780,28 +24944,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3694002394299694</v>
+        <v>-0.3684980590224982</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07384745694084927</v>
+        <v>0.07448685603876881</v>
       </c>
       <c r="M3" t="n">
-        <v>7.520148558821304</v>
+        <v>7.478767778758976</v>
       </c>
       <c r="N3" t="n">
-        <v>92.83877349923721</v>
+        <v>92.18794639010676</v>
       </c>
       <c r="O3" t="n">
-        <v>9.635287930271581</v>
+        <v>9.601455430824368</v>
       </c>
       <c r="P3" t="n">
-        <v>358.7494509274225</v>
+        <v>358.7404232958926</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24858,28 +25022,28 @@
         <v>0.0312</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4159135238284331</v>
+        <v>-0.4141027519080624</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08992529752046974</v>
+        <v>0.09035080475989121</v>
       </c>
       <c r="M4" t="n">
-        <v>7.602296824054358</v>
+        <v>7.568619369257166</v>
       </c>
       <c r="N4" t="n">
-        <v>95.59600305341466</v>
+        <v>94.96515415430162</v>
       </c>
       <c r="O4" t="n">
-        <v>9.777320852534945</v>
+        <v>9.745006626693572</v>
       </c>
       <c r="P4" t="n">
-        <v>359.2199478491445</v>
+        <v>359.2019334872473</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24936,28 +25100,28 @@
         <v>0.0319</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4608390211945929</v>
+        <v>-0.4613904175539317</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09017341568772919</v>
+        <v>0.09155648446644193</v>
       </c>
       <c r="M5" t="n">
-        <v>8.679024207479429</v>
+        <v>8.629800241903174</v>
       </c>
       <c r="N5" t="n">
-        <v>115.7499545574564</v>
+        <v>114.9311552488673</v>
       </c>
       <c r="O5" t="n">
-        <v>10.7587152837807</v>
+        <v>10.72059491114496</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8510497035174</v>
+        <v>366.8565559315781</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25014,28 +25178,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4043581933317538</v>
+        <v>-0.3966582128356144</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07347794409929875</v>
+        <v>0.07167582758868896</v>
       </c>
       <c r="M6" t="n">
-        <v>8.465349276698971</v>
+        <v>8.442013924339427</v>
       </c>
       <c r="N6" t="n">
-        <v>110.3041602378362</v>
+        <v>109.8229784507326</v>
       </c>
       <c r="O6" t="n">
-        <v>10.50257874228212</v>
+        <v>10.47964591246921</v>
       </c>
       <c r="P6" t="n">
-        <v>362.8468273766371</v>
+        <v>362.7692639937925</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25092,28 +25256,28 @@
         <v>0.0429</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3869860645106268</v>
+        <v>-0.3755935280954126</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05120322467702398</v>
+        <v>0.04890671067940622</v>
       </c>
       <c r="M7" t="n">
-        <v>9.414473764670715</v>
+        <v>9.406969911275612</v>
       </c>
       <c r="N7" t="n">
-        <v>150.3363246901378</v>
+        <v>149.7569165965613</v>
       </c>
       <c r="O7" t="n">
-        <v>12.26117142405806</v>
+        <v>12.23752085173142</v>
       </c>
       <c r="P7" t="n">
-        <v>342.2770386098199</v>
+        <v>342.164491706716</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25170,28 +25334,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4618672462300904</v>
+        <v>-0.4526540036514024</v>
       </c>
       <c r="J8" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08631592474962813</v>
+        <v>0.08412421971384898</v>
       </c>
       <c r="M8" t="n">
-        <v>8.221498838259555</v>
+        <v>8.203664937168226</v>
       </c>
       <c r="N8" t="n">
-        <v>120.4714940528125</v>
+        <v>119.9274309640759</v>
       </c>
       <c r="O8" t="n">
-        <v>10.97595071293656</v>
+        <v>10.95113834101624</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9703252460667</v>
+        <v>338.8781652379893</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25248,28 +25412,28 @@
         <v>0.0409</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4647349429118317</v>
+        <v>-0.4560183177290377</v>
       </c>
       <c r="J9" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08869261790740035</v>
+        <v>0.08664398197903389</v>
       </c>
       <c r="M9" t="n">
-        <v>8.350733452984874</v>
+        <v>8.327903779536646</v>
       </c>
       <c r="N9" t="n">
-        <v>117.3220060937409</v>
+        <v>116.7643609597242</v>
       </c>
       <c r="O9" t="n">
-        <v>10.83152833600785</v>
+        <v>10.80575591801537</v>
       </c>
       <c r="P9" t="n">
-        <v>341.6039925994788</v>
+        <v>341.5157803285181</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25326,28 +25490,28 @@
         <v>0.0401</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.554634834784177</v>
+        <v>-0.5545973789350852</v>
       </c>
       <c r="J10" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1316050552837806</v>
+        <v>0.1331745012487732</v>
       </c>
       <c r="M10" t="n">
-        <v>8.079976060007899</v>
+        <v>8.035880282975365</v>
       </c>
       <c r="N10" t="n">
-        <v>107.9452831124778</v>
+        <v>107.2002786176209</v>
       </c>
       <c r="O10" t="n">
-        <v>10.38967194441084</v>
+        <v>10.35375673934929</v>
       </c>
       <c r="P10" t="n">
-        <v>345.807359374946</v>
+        <v>345.8069637221702</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25404,28 +25568,28 @@
         <v>0.0402</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6507565641408566</v>
+        <v>-0.6539628209568941</v>
       </c>
       <c r="J11" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K11" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1915547018215209</v>
+        <v>0.1951921805562911</v>
       </c>
       <c r="M11" t="n">
-        <v>7.581895303053917</v>
+        <v>7.544422274730901</v>
       </c>
       <c r="N11" t="n">
-        <v>96.09934177891263</v>
+        <v>95.46689247702218</v>
       </c>
       <c r="O11" t="n">
-        <v>9.803027174241262</v>
+        <v>9.770716067772218</v>
       </c>
       <c r="P11" t="n">
-        <v>346.0477621012471</v>
+        <v>346.0800827661952</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25482,28 +25646,28 @@
         <v>0.039</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7065850734589658</v>
+        <v>-0.7153649064297202</v>
       </c>
       <c r="J12" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K12" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2071189902707291</v>
+        <v>0.2130787920236007</v>
       </c>
       <c r="M12" t="n">
-        <v>7.945084223620944</v>
+        <v>7.932153153184831</v>
       </c>
       <c r="N12" t="n">
-        <v>102.9823867259484</v>
+        <v>102.5293175849475</v>
       </c>
       <c r="O12" t="n">
-        <v>10.14802378426206</v>
+        <v>10.12567615445741</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6366682351756</v>
+        <v>350.7254493093668</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25560,28 +25724,28 @@
         <v>0.0427</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.721535720138737</v>
+        <v>-0.731653351844097</v>
       </c>
       <c r="J13" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K13" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2099744613243505</v>
+        <v>0.2163063908041896</v>
       </c>
       <c r="M13" t="n">
-        <v>8.137312105691459</v>
+        <v>8.126755601360468</v>
       </c>
       <c r="N13" t="n">
-        <v>104.9523818420879</v>
+        <v>104.6283056263081</v>
       </c>
       <c r="O13" t="n">
-        <v>10.24462697427719</v>
+        <v>10.22879785831689</v>
       </c>
       <c r="P13" t="n">
-        <v>349.0566101234733</v>
+        <v>349.1595465563115</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25638,28 +25802,28 @@
         <v>0.0438</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7165070106219812</v>
+        <v>-0.7233576200325023</v>
       </c>
       <c r="J14" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K14" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2237681370044408</v>
+        <v>0.2292791103606747</v>
       </c>
       <c r="M14" t="n">
-        <v>7.544046551094451</v>
+        <v>7.524056237343408</v>
       </c>
       <c r="N14" t="n">
-        <v>95.7189970405189</v>
+        <v>95.18350001864815</v>
       </c>
       <c r="O14" t="n">
-        <v>9.783608589907862</v>
+        <v>9.75620315587207</v>
       </c>
       <c r="P14" t="n">
-        <v>342.1391136925143</v>
+        <v>342.2087994022763</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25716,28 +25880,28 @@
         <v>0.0432</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6789673785112093</v>
+        <v>-0.6801587426304391</v>
       </c>
       <c r="J15" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K15" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1951563494923504</v>
+        <v>0.1979886994822357</v>
       </c>
       <c r="M15" t="n">
-        <v>7.926799181116092</v>
+        <v>7.8805318643206</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2960035330551</v>
+        <v>101.5475946586533</v>
       </c>
       <c r="O15" t="n">
-        <v>10.11414868058875</v>
+        <v>10.07708264621529</v>
       </c>
       <c r="P15" t="n">
-        <v>336.7890848843401</v>
+        <v>336.8011262910152</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25794,28 +25958,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6822225986334051</v>
+        <v>-0.6749854833787196</v>
       </c>
       <c r="J16" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K16" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1970780700998296</v>
+        <v>0.1957001095532073</v>
       </c>
       <c r="M16" t="n">
-        <v>7.828255570793596</v>
+        <v>7.809738577739195</v>
       </c>
       <c r="N16" t="n">
-        <v>101.2286478968063</v>
+        <v>100.7081738675883</v>
       </c>
       <c r="O16" t="n">
-        <v>10.06124484826834</v>
+        <v>10.03534622559622</v>
       </c>
       <c r="P16" t="n">
-        <v>344.4986866126868</v>
+        <v>344.4260749362761</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25872,28 +26036,28 @@
         <v>0.0462</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4915351956096312</v>
+        <v>-0.4775360442405128</v>
       </c>
       <c r="J17" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K17" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1270040628938004</v>
+        <v>0.1213854391846527</v>
       </c>
       <c r="M17" t="n">
-        <v>7.260863058570592</v>
+        <v>7.280067868948628</v>
       </c>
       <c r="N17" t="n">
-        <v>86.78161973244052</v>
+        <v>86.89643708547676</v>
       </c>
       <c r="O17" t="n">
-        <v>9.315665286625562</v>
+        <v>9.321825845051857</v>
       </c>
       <c r="P17" t="n">
-        <v>343.9691384587523</v>
+        <v>343.8269937230868</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25950,28 +26114,28 @@
         <v>0.0443</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5197933806439008</v>
+        <v>-0.5086900620982446</v>
       </c>
       <c r="J18" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K18" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1546275814811314</v>
+        <v>0.1500996627800982</v>
       </c>
       <c r="M18" t="n">
-        <v>6.957344287381235</v>
+        <v>6.966482373326849</v>
       </c>
       <c r="N18" t="n">
-        <v>78.86832682462138</v>
+        <v>78.78058453520222</v>
       </c>
       <c r="O18" t="n">
-        <v>8.880784133432215</v>
+        <v>8.875842750702731</v>
       </c>
       <c r="P18" t="n">
-        <v>342.2748034536068</v>
+        <v>342.1626825245094</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26028,28 +26192,28 @@
         <v>0.0432</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5268487212952448</v>
+        <v>-0.5147816003378786</v>
       </c>
       <c r="J19" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K19" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L19" t="n">
-        <v>0.181948184757554</v>
+        <v>0.1758832755674177</v>
       </c>
       <c r="M19" t="n">
-        <v>6.435563646326456</v>
+        <v>6.457785053909514</v>
       </c>
       <c r="N19" t="n">
-        <v>66.86981922105585</v>
+        <v>66.96608664230514</v>
       </c>
       <c r="O19" t="n">
-        <v>8.177396848695546</v>
+        <v>8.183280921629487</v>
       </c>
       <c r="P19" t="n">
-        <v>342.1618747324374</v>
+        <v>342.0390491480603</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26106,28 +26270,28 @@
         <v>0.0502</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3599006472579057</v>
+        <v>-0.3570092341857788</v>
       </c>
       <c r="J20" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K20" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09493927003903202</v>
+        <v>0.09467892354061958</v>
       </c>
       <c r="M20" t="n">
-        <v>6.414676065764515</v>
+        <v>6.383747115145979</v>
       </c>
       <c r="N20" t="n">
-        <v>66.05491299076672</v>
+        <v>65.62530980765752</v>
       </c>
       <c r="O20" t="n">
-        <v>8.127417362899898</v>
+        <v>8.100944994731018</v>
       </c>
       <c r="P20" t="n">
-        <v>349.1675351173353</v>
+        <v>349.1380900640809</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26184,28 +26348,28 @@
         <v>0.0463</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2065164467067926</v>
+        <v>-0.2031800335422638</v>
       </c>
       <c r="J21" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K21" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03256007234585434</v>
+        <v>0.03195963966366755</v>
       </c>
       <c r="M21" t="n">
-        <v>6.348454440413383</v>
+        <v>6.322620111322866</v>
       </c>
       <c r="N21" t="n">
-        <v>67.66967256592297</v>
+        <v>67.23398325009573</v>
       </c>
       <c r="O21" t="n">
-        <v>8.22615782525007</v>
+        <v>8.199633116798321</v>
       </c>
       <c r="P21" t="n">
-        <v>350.6046536989068</v>
+        <v>350.5708732998878</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26243,7 +26407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V309"/>
+  <dimension ref="A1:V311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58191,6 +58355,230 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:25+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-41.31743793244613,175.86272504178365</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-41.3178796618183,175.86201238888813</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-41.318375511861795,175.86140584907926</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-41.31888199351623,175.86081630836398</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-41.319417815939254,175.8602733698786</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-41.31980513281678,175.85952024501526</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-41.32017830731519,175.85877371438536</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-41.32060740822456,175.85809180881762</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-41.32094954304452,175.85733016670073</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-41.321257518091315,175.8565578313495</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-41.32152063252508,175.85575773250798</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-41.32173008731347,175.85490614332804</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-41.32195930651711,175.85405990217293</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>-41.32220036736488,175.8532444307529</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>-41.322502846910695,175.8524381144931</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>-41.32284643640929,175.851642042822</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>-41.32314381663339,175.85082141093656</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>-41.32351047252629,175.85006894887746</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>-41.32385738341122,175.84929880359704</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>-41.32428334145683,175.848598600778</t>
+        </is>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-41.317457463088545,175.86276023348813</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-41.317899802656584,175.86204611145106</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-41.31841142096002,175.86145812706334</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-41.31890490797995,175.86085163792413</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-41.31946191074502,175.86034212161397</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-41.3198152600572,175.85953297491477</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-41.320195338443575,175.8587927783481</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-41.32062915858736,175.85811414256656</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>-41.32097792154945,175.85735561930724</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-41.32127995518104,175.85657422434195</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-41.32153766926894,175.8557679088295</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-41.321782588679326,175.85493599208377</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-41.32198445808462,175.85407420145694</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-41.32223047904592,175.85325897217422</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>-41.322521076034135,175.85244693127908</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>-41.32284298839333,175.8516397099629</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>-41.323145566292176,175.85082287909475</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>-41.32351284468815,175.8500708982027</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>-41.3238750613932,175.8493136757591</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>-41.324282793223105,175.84859808961525</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0349/nzd0349.xlsx
+++ b/data/nzd0349/nzd0349.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V311"/>
+  <dimension ref="A1:V312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21534,6 +21534,78 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>350.2433333333333</v>
+      </c>
+      <c r="D312" t="n">
+        <v>348.5633333333333</v>
+      </c>
+      <c r="E312" t="n">
+        <v>353.1533333333333</v>
+      </c>
+      <c r="F312" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="G312" t="n">
+        <v>339.53</v>
+      </c>
+      <c r="H312" t="n">
+        <v>333.8128571428572</v>
+      </c>
+      <c r="I312" t="n">
+        <v>336.6228571428572</v>
+      </c>
+      <c r="J312" t="n">
+        <v>336.3128571428572</v>
+      </c>
+      <c r="K312" t="n">
+        <v>324.3728571428572</v>
+      </c>
+      <c r="L312" t="n">
+        <v>324.4528571428572</v>
+      </c>
+      <c r="M312" t="n">
+        <v>330.9428571428572</v>
+      </c>
+      <c r="N312" t="n">
+        <v>312.7</v>
+      </c>
+      <c r="O312" t="n">
+        <v>318.06</v>
+      </c>
+      <c r="P312" t="n">
+        <v>339.1555555555556</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>342.97</v>
+      </c>
+      <c r="R312" t="n">
+        <v>336.82</v>
+      </c>
+      <c r="S312" t="n">
+        <v>334.01</v>
+      </c>
+      <c r="T312" t="n">
+        <v>340.4255555555555</v>
+      </c>
+      <c r="U312" t="n">
+        <v>347.9655555555556</v>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21545,7 +21617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24693,6 +24765,16 @@
       </c>
       <c r="B314" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -24866,28 +24948,28 @@
         <v>0.0266</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.406895114304305</v>
+        <v>-0.4027622879800116</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08826019880506031</v>
+        <v>0.08709187754405179</v>
       </c>
       <c r="M2" t="n">
-        <v>7.619304911117676</v>
+        <v>7.614190764185677</v>
       </c>
       <c r="N2" t="n">
-        <v>92.40068858671899</v>
+        <v>92.19402355590888</v>
       </c>
       <c r="O2" t="n">
-        <v>9.612527689776451</v>
+        <v>9.601771896681825</v>
       </c>
       <c r="P2" t="n">
-        <v>372.557304496453</v>
+        <v>372.5157181417314</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24944,28 +25026,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3684980590224982</v>
+        <v>-0.3678439888878565</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K3" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07448685603876881</v>
+        <v>0.07473174659276749</v>
       </c>
       <c r="M3" t="n">
-        <v>7.478767778758976</v>
+        <v>7.455243629418599</v>
       </c>
       <c r="N3" t="n">
-        <v>92.18794639010676</v>
+        <v>91.85599301492536</v>
       </c>
       <c r="O3" t="n">
-        <v>9.601455430824368</v>
+        <v>9.584153223677372</v>
       </c>
       <c r="P3" t="n">
-        <v>358.7404232958926</v>
+        <v>358.7338775436073</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25022,28 +25104,28 @@
         <v>0.0312</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4141027519080624</v>
+        <v>-0.4141149695903615</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09035080475989121</v>
+        <v>0.09095322835323527</v>
       </c>
       <c r="M4" t="n">
-        <v>7.568619369257166</v>
+        <v>7.540750717859658</v>
       </c>
       <c r="N4" t="n">
-        <v>94.96515415430162</v>
+        <v>94.61473036382083</v>
       </c>
       <c r="O4" t="n">
-        <v>9.745006626693572</v>
+        <v>9.727010350761473</v>
       </c>
       <c r="P4" t="n">
-        <v>359.2019334872473</v>
+        <v>359.2020550820083</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25100,28 +25182,28 @@
         <v>0.0319</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4613904175539317</v>
+        <v>-0.4626816321145107</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09155648446644193</v>
+        <v>0.09261567444800456</v>
       </c>
       <c r="M5" t="n">
-        <v>8.629800241903174</v>
+        <v>8.605108794073734</v>
       </c>
       <c r="N5" t="n">
-        <v>114.9311552488673</v>
+        <v>114.5243150475116</v>
       </c>
       <c r="O5" t="n">
-        <v>10.72059491114496</v>
+        <v>10.70160338675993</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8565559315781</v>
+        <v>366.8695070434721</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25178,28 +25260,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3966582128356144</v>
+        <v>-0.396551509929764</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07167582758868896</v>
+        <v>0.07211966756418575</v>
       </c>
       <c r="M6" t="n">
-        <v>8.442013924339427</v>
+        <v>8.411953530825327</v>
       </c>
       <c r="N6" t="n">
-        <v>109.8229784507326</v>
+        <v>109.4251544424913</v>
       </c>
       <c r="O6" t="n">
-        <v>10.47964591246921</v>
+        <v>10.46064789783555</v>
       </c>
       <c r="P6" t="n">
-        <v>362.7692639937925</v>
+        <v>362.7681877936226</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25256,28 +25338,28 @@
         <v>0.0429</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3755935280954126</v>
+        <v>-0.3708392489092893</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04890671067940622</v>
+        <v>0.04801269867800628</v>
       </c>
       <c r="M7" t="n">
-        <v>9.406969911275612</v>
+        <v>9.398712185734263</v>
       </c>
       <c r="N7" t="n">
-        <v>149.7569165965613</v>
+        <v>149.4002338739059</v>
       </c>
       <c r="O7" t="n">
-        <v>12.23752085173142</v>
+        <v>12.22293883948971</v>
       </c>
       <c r="P7" t="n">
-        <v>342.164491706716</v>
+        <v>342.1174505348938</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25334,28 +25416,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4526540036514024</v>
+        <v>-0.4481299722097877</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08412421971384898</v>
+        <v>0.08304787117318213</v>
       </c>
       <c r="M8" t="n">
-        <v>8.203664937168226</v>
+        <v>8.194608336084702</v>
       </c>
       <c r="N8" t="n">
-        <v>119.9274309640759</v>
+        <v>119.6514152201928</v>
       </c>
       <c r="O8" t="n">
-        <v>10.95113834101624</v>
+        <v>10.93852893309666</v>
       </c>
       <c r="P8" t="n">
-        <v>338.8781652379893</v>
+        <v>338.8328434974315</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25412,28 +25494,28 @@
         <v>0.0409</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4560183177290377</v>
+        <v>-0.4512823588215643</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K9" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08664398197903389</v>
+        <v>0.0854611851704965</v>
       </c>
       <c r="M9" t="n">
-        <v>8.327903779536646</v>
+        <v>8.318322460772658</v>
       </c>
       <c r="N9" t="n">
-        <v>116.7643609597242</v>
+        <v>116.509030918541</v>
       </c>
       <c r="O9" t="n">
-        <v>10.80575591801537</v>
+        <v>10.79393491357721</v>
       </c>
       <c r="P9" t="n">
-        <v>341.5157803285181</v>
+        <v>341.4677816586737</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25490,28 +25572,28 @@
         <v>0.0401</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5545973789350852</v>
+        <v>-0.5514065215177106</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K10" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1331745012487732</v>
+        <v>0.1325570061302893</v>
       </c>
       <c r="M10" t="n">
-        <v>8.035880282975365</v>
+        <v>8.022465312086432</v>
       </c>
       <c r="N10" t="n">
-        <v>107.2002786176209</v>
+        <v>106.897581875286</v>
       </c>
       <c r="O10" t="n">
-        <v>10.35375673934929</v>
+        <v>10.33912868066192</v>
       </c>
       <c r="P10" t="n">
-        <v>345.8069637221702</v>
+        <v>345.7744529195232</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25568,28 +25650,28 @@
         <v>0.0402</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6539628209568941</v>
+        <v>-0.6572746015229364</v>
       </c>
       <c r="J11" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K11" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1951921805562911</v>
+        <v>0.1977380248877337</v>
       </c>
       <c r="M11" t="n">
-        <v>7.544422274730901</v>
+        <v>7.534677982685263</v>
       </c>
       <c r="N11" t="n">
-        <v>95.46689247702218</v>
+        <v>95.21289254692195</v>
       </c>
       <c r="O11" t="n">
-        <v>9.770716067772218</v>
+        <v>9.757709390370362</v>
       </c>
       <c r="P11" t="n">
-        <v>346.0800827661952</v>
+        <v>346.1135343375755</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25646,28 +25728,28 @@
         <v>0.039</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7153649064297202</v>
+        <v>-0.7207644808306821</v>
       </c>
       <c r="J12" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K12" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2130787920236007</v>
+        <v>0.2164168109634976</v>
       </c>
       <c r="M12" t="n">
-        <v>7.932153153184831</v>
+        <v>7.931276986394583</v>
       </c>
       <c r="N12" t="n">
-        <v>102.5293175849475</v>
+        <v>102.3819044133699</v>
       </c>
       <c r="O12" t="n">
-        <v>10.12567615445741</v>
+        <v>10.11839435945101</v>
       </c>
       <c r="P12" t="n">
-        <v>350.7254493093668</v>
+        <v>350.780147334744</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25724,28 +25806,28 @@
         <v>0.0427</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.731653351844097</v>
+        <v>-0.7312729628048468</v>
       </c>
       <c r="J13" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K13" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2163063908041896</v>
+        <v>0.2173239899447565</v>
       </c>
       <c r="M13" t="n">
-        <v>8.126755601360468</v>
+        <v>8.098686146336146</v>
       </c>
       <c r="N13" t="n">
-        <v>104.6283056263081</v>
+        <v>104.2404608308343</v>
       </c>
       <c r="O13" t="n">
-        <v>10.22879785831689</v>
+        <v>10.20982178252071</v>
       </c>
       <c r="P13" t="n">
-        <v>349.1595465563115</v>
+        <v>349.1556689290875</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25802,28 +25884,28 @@
         <v>0.0438</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7233576200325023</v>
+        <v>-0.7310460176967005</v>
       </c>
       <c r="J14" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K14" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2292791103606747</v>
+        <v>0.2334625869913389</v>
       </c>
       <c r="M14" t="n">
-        <v>7.524056237343408</v>
+        <v>7.537386028989957</v>
       </c>
       <c r="N14" t="n">
-        <v>95.18350001864815</v>
+        <v>95.27269777675575</v>
       </c>
       <c r="O14" t="n">
-        <v>9.75620315587207</v>
+        <v>9.760773421033589</v>
       </c>
       <c r="P14" t="n">
-        <v>342.2087994022763</v>
+        <v>342.2871559569812</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25880,28 +25962,28 @@
         <v>0.0432</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6801587426304391</v>
+        <v>-0.6810761062240223</v>
       </c>
       <c r="J15" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K15" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1979886994822357</v>
+        <v>0.1995616303581371</v>
       </c>
       <c r="M15" t="n">
-        <v>7.8805318643206</v>
+        <v>7.855856748821307</v>
       </c>
       <c r="N15" t="n">
-        <v>101.5475946586533</v>
+        <v>101.1692398206904</v>
       </c>
       <c r="O15" t="n">
-        <v>10.07708264621529</v>
+        <v>10.05829209263135</v>
       </c>
       <c r="P15" t="n">
-        <v>336.8011262910152</v>
+        <v>336.8104253403041</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25958,28 +26040,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6749854833787196</v>
+        <v>-0.6667433585027556</v>
       </c>
       <c r="J16" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K16" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1957001095532073</v>
+        <v>0.1921912337960566</v>
       </c>
       <c r="M16" t="n">
-        <v>7.809738577739195</v>
+        <v>7.824659917092209</v>
       </c>
       <c r="N16" t="n">
-        <v>100.7081738675883</v>
+        <v>100.8597501426422</v>
       </c>
       <c r="O16" t="n">
-        <v>10.03534622559622</v>
+        <v>10.04289550591074</v>
       </c>
       <c r="P16" t="n">
-        <v>344.4260749362761</v>
+        <v>344.3432553750803</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26036,28 +26118,28 @@
         <v>0.0462</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4775360442405128</v>
+        <v>-0.4698343203158527</v>
       </c>
       <c r="J17" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K17" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1213854391846527</v>
+        <v>0.1181675613272553</v>
       </c>
       <c r="M17" t="n">
-        <v>7.280067868948628</v>
+        <v>7.292964336241277</v>
       </c>
       <c r="N17" t="n">
-        <v>86.89643708547676</v>
+        <v>87.03904587476762</v>
       </c>
       <c r="O17" t="n">
-        <v>9.321825845051857</v>
+        <v>9.329471896885034</v>
       </c>
       <c r="P17" t="n">
-        <v>343.8269937230868</v>
+        <v>343.748668236661</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26114,28 +26196,28 @@
         <v>0.0443</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5086900620982446</v>
+        <v>-0.5035337763561187</v>
       </c>
       <c r="J18" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K18" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1500996627800982</v>
+        <v>0.1480620821792382</v>
       </c>
       <c r="M18" t="n">
-        <v>6.966482373326849</v>
+        <v>6.968858566885303</v>
       </c>
       <c r="N18" t="n">
-        <v>78.78058453520222</v>
+        <v>78.71026345137787</v>
       </c>
       <c r="O18" t="n">
-        <v>8.875842750702731</v>
+        <v>8.871880491270037</v>
       </c>
       <c r="P18" t="n">
-        <v>342.1626825245094</v>
+        <v>342.1105292709965</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26192,28 +26274,28 @@
         <v>0.0432</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5147816003378786</v>
+        <v>-0.5113594603114001</v>
       </c>
       <c r="J19" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K19" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1758832755674177</v>
+        <v>0.1747228258845113</v>
       </c>
       <c r="M19" t="n">
-        <v>6.457785053909514</v>
+        <v>6.454111434310925</v>
       </c>
       <c r="N19" t="n">
-        <v>66.96608664230514</v>
+        <v>66.82258411376817</v>
       </c>
       <c r="O19" t="n">
-        <v>8.183280921629487</v>
+        <v>8.17450818788312</v>
       </c>
       <c r="P19" t="n">
-        <v>342.0390491480603</v>
+        <v>342.0041578156892</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26270,28 +26352,28 @@
         <v>0.0502</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3570092341857788</v>
+        <v>-0.3567136253491172</v>
       </c>
       <c r="J20" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K20" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09467892354061958</v>
+        <v>0.09511741176953403</v>
       </c>
       <c r="M20" t="n">
-        <v>6.383747115145979</v>
+        <v>6.362542043313273</v>
       </c>
       <c r="N20" t="n">
-        <v>65.62530980765752</v>
+        <v>65.39246244434668</v>
       </c>
       <c r="O20" t="n">
-        <v>8.100944994731018</v>
+        <v>8.086560606608144</v>
       </c>
       <c r="P20" t="n">
-        <v>349.1380900640809</v>
+        <v>349.1350755164123</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26348,28 +26430,28 @@
         <v>0.0463</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2031800335422638</v>
+        <v>-0.2014391711569856</v>
       </c>
       <c r="J21" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K21" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03195963966366755</v>
+        <v>0.03163094981344228</v>
       </c>
       <c r="M21" t="n">
-        <v>6.322620111322866</v>
+        <v>6.310222370552026</v>
       </c>
       <c r="N21" t="n">
-        <v>67.23398325009573</v>
+        <v>67.02090680790928</v>
       </c>
       <c r="O21" t="n">
-        <v>8.199633116798321</v>
+        <v>8.186629758814631</v>
       </c>
       <c r="P21" t="n">
-        <v>350.5708732998878</v>
+        <v>350.5532180997695</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26407,7 +26489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V311"/>
+  <dimension ref="A1:V312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58579,6 +58661,118 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-41.31745266047264,175.86275157978838</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-41.3178914370368,175.8620321045746</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-41.31838561571871,175.86142055869195</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-41.31888467437212,175.86082044171005</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-41.31940918361757,175.86025991055496</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-41.319802650009215,175.85951712413728</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-41.32018725037785,175.85878372488966</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-41.32062335239001,175.858108180634</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-41.32099868344706,175.8573742406165</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-41.32124797782191,175.8565508610395</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-41.32151529755,175.85575454584273</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-41.321819358540516,175.854956896994</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>-41.321920255394716,175.85403770067572</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>-41.32221119403699,175.85324965912747</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>-41.32257020069844,175.85247069117966</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>-41.32285525691497,175.85164801060228</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>-41.3231418387582,175.85081975127957</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>-41.32348323092295,175.85004656308837</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>-41.32385346435519,175.84929550656844</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>-41.32428433155059,175.84859952392264</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0349/nzd0349.xlsx
+++ b/data/nzd0349/nzd0349.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V312"/>
+  <dimension ref="A1:V314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21606,6 +21606,150 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:00:46+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>362.95</v>
+      </c>
+      <c r="C313" t="n">
+        <v>344.5033333333333</v>
+      </c>
+      <c r="D313" t="n">
+        <v>341.8533333333333</v>
+      </c>
+      <c r="E313" t="n">
+        <v>338.5933333333333</v>
+      </c>
+      <c r="F313" t="n">
+        <v>349.65</v>
+      </c>
+      <c r="G313" t="n">
+        <v>315.35</v>
+      </c>
+      <c r="H313" t="n">
+        <v>316.5671428571428</v>
+      </c>
+      <c r="I313" t="n">
+        <v>316.7071428571429</v>
+      </c>
+      <c r="J313" t="n">
+        <v>317.9571428571429</v>
+      </c>
+      <c r="K313" t="n">
+        <v>319.3971428571429</v>
+      </c>
+      <c r="L313" t="n">
+        <v>323.3171428571428</v>
+      </c>
+      <c r="M313" t="n">
+        <v>320.7571428571428</v>
+      </c>
+      <c r="N313" t="n">
+        <v>329.11</v>
+      </c>
+      <c r="O313" t="n">
+        <v>317.46</v>
+      </c>
+      <c r="P313" t="n">
+        <v>315.7555555555556</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>329.01</v>
+      </c>
+      <c r="R313" t="n">
+        <v>327.89</v>
+      </c>
+      <c r="S313" t="n">
+        <v>327.62</v>
+      </c>
+      <c r="T313" t="n">
+        <v>337.3055555555555</v>
+      </c>
+      <c r="U313" t="n">
+        <v>338.5155555555555</v>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>358.96</v>
+      </c>
+      <c r="C314" t="n">
+        <v>347.2066666666667</v>
+      </c>
+      <c r="D314" t="n">
+        <v>347.5366666666667</v>
+      </c>
+      <c r="E314" t="n">
+        <v>354.5966666666667</v>
+      </c>
+      <c r="F314" t="n">
+        <v>358.97</v>
+      </c>
+      <c r="G314" t="n">
+        <v>332.29</v>
+      </c>
+      <c r="H314" t="n">
+        <v>326.3514285714285</v>
+      </c>
+      <c r="I314" t="n">
+        <v>326.4114285714285</v>
+      </c>
+      <c r="J314" t="n">
+        <v>337.8114285714286</v>
+      </c>
+      <c r="K314" t="n">
+        <v>336.1314285714286</v>
+      </c>
+      <c r="L314" t="n">
+        <v>346.7014285714285</v>
+      </c>
+      <c r="M314" t="n">
+        <v>338.9414285714286</v>
+      </c>
+      <c r="N314" t="n">
+        <v>328.62</v>
+      </c>
+      <c r="O314" t="n">
+        <v>318.28</v>
+      </c>
+      <c r="P314" t="n">
+        <v>328.0877777777778</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>333.62</v>
+      </c>
+      <c r="R314" t="n">
+        <v>334.17</v>
+      </c>
+      <c r="S314" t="n">
+        <v>334.34</v>
+      </c>
+      <c r="T314" t="n">
+        <v>343.7677777777778</v>
+      </c>
+      <c r="U314" t="n">
+        <v>342.6777777777777</v>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21617,7 +21761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24775,6 +24919,26 @@
       </c>
       <c r="B315" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -24948,28 +25112,28 @@
         <v>0.0266</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4027622879800116</v>
+        <v>-0.4043887039140785</v>
       </c>
       <c r="J2" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08709187754405179</v>
+        <v>0.08886266281720656</v>
       </c>
       <c r="M2" t="n">
-        <v>7.614190764185677</v>
+        <v>7.573322205084853</v>
       </c>
       <c r="N2" t="n">
-        <v>92.19402355590888</v>
+        <v>91.56884767647547</v>
       </c>
       <c r="O2" t="n">
-        <v>9.601771896681825</v>
+        <v>9.569161283857403</v>
       </c>
       <c r="P2" t="n">
-        <v>372.5157181417314</v>
+        <v>372.5322270898226</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25026,28 +25190,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3678439888878565</v>
+        <v>-0.3724530945808573</v>
       </c>
       <c r="J3" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07473174659276749</v>
+        <v>0.07741328596434682</v>
       </c>
       <c r="M3" t="n">
-        <v>7.455243629418599</v>
+        <v>7.424105523175344</v>
       </c>
       <c r="N3" t="n">
-        <v>91.85599301492536</v>
+        <v>91.28789282774959</v>
       </c>
       <c r="O3" t="n">
-        <v>9.584153223677372</v>
+        <v>9.554469782659297</v>
       </c>
       <c r="P3" t="n">
-        <v>358.7338775436073</v>
+        <v>358.7802547396561</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25104,28 +25268,28 @@
         <v>0.0312</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4141149695903615</v>
+        <v>-0.4193688381844635</v>
       </c>
       <c r="J4" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09095322835323527</v>
+        <v>0.09414190566835812</v>
       </c>
       <c r="M4" t="n">
-        <v>7.540750717859658</v>
+        <v>7.511536084202743</v>
       </c>
       <c r="N4" t="n">
-        <v>94.61473036382083</v>
+        <v>94.08677779645814</v>
       </c>
       <c r="O4" t="n">
-        <v>9.727010350761473</v>
+        <v>9.699833905611897</v>
       </c>
       <c r="P4" t="n">
-        <v>359.2020550820083</v>
+        <v>359.2545983254142</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25182,28 +25346,28 @@
         <v>0.0319</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4626816321145107</v>
+        <v>-0.4740685893488313</v>
       </c>
       <c r="J5" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09261567444800456</v>
+        <v>0.09730863227178699</v>
       </c>
       <c r="M5" t="n">
-        <v>8.605108794073734</v>
+        <v>8.601817036285922</v>
       </c>
       <c r="N5" t="n">
-        <v>114.5243150475116</v>
+        <v>114.6548174609542</v>
       </c>
       <c r="O5" t="n">
-        <v>10.70160338675993</v>
+        <v>10.70769898068461</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8695070434721</v>
+        <v>366.9842296386439</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25260,28 +25424,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.396551509929764</v>
+        <v>-0.3941207580321278</v>
       </c>
       <c r="J6" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07211966756418575</v>
+        <v>0.07215048160856641</v>
       </c>
       <c r="M6" t="n">
-        <v>8.411953530825327</v>
+        <v>8.384340508319395</v>
       </c>
       <c r="N6" t="n">
-        <v>109.4251544424913</v>
+        <v>108.8168382389882</v>
       </c>
       <c r="O6" t="n">
-        <v>10.46064789783555</v>
+        <v>10.43153096333363</v>
       </c>
       <c r="P6" t="n">
-        <v>362.7681877936226</v>
+        <v>362.7434179159492</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25338,28 +25502,28 @@
         <v>0.0429</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3708392489092893</v>
+        <v>-0.3825598915486533</v>
       </c>
       <c r="J7" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04801269867800628</v>
+        <v>0.05130669800814036</v>
       </c>
       <c r="M7" t="n">
-        <v>9.398712185734263</v>
+        <v>9.392806933219001</v>
       </c>
       <c r="N7" t="n">
-        <v>149.4002338739059</v>
+        <v>149.3816390532683</v>
       </c>
       <c r="O7" t="n">
-        <v>12.22293883948971</v>
+        <v>12.22217816321086</v>
       </c>
       <c r="P7" t="n">
-        <v>342.1174505348938</v>
+        <v>342.2339213336488</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25416,28 +25580,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4481299722097877</v>
+        <v>-0.456081203625718</v>
       </c>
       <c r="J8" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K8" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08304787117318213</v>
+        <v>0.0866493858366526</v>
       </c>
       <c r="M8" t="n">
-        <v>8.194608336084702</v>
+        <v>8.182482595666055</v>
       </c>
       <c r="N8" t="n">
-        <v>119.6514152201928</v>
+        <v>119.2107100895001</v>
       </c>
       <c r="O8" t="n">
-        <v>10.93852893309666</v>
+        <v>10.91836572429684</v>
       </c>
       <c r="P8" t="n">
-        <v>338.8328434974315</v>
+        <v>338.9128557737448</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25494,28 +25658,28 @@
         <v>0.0409</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4512823588215643</v>
+        <v>-0.4626725955182376</v>
       </c>
       <c r="J9" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K9" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0854611851704965</v>
+        <v>0.0901698229129555</v>
       </c>
       <c r="M9" t="n">
-        <v>8.318322460772658</v>
+        <v>8.326764243884087</v>
       </c>
       <c r="N9" t="n">
-        <v>116.509030918541</v>
+        <v>116.3251852546226</v>
       </c>
       <c r="O9" t="n">
-        <v>10.79393491357721</v>
+        <v>10.78541539555258</v>
       </c>
       <c r="P9" t="n">
-        <v>341.4677816586737</v>
+        <v>341.5837885375564</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25572,28 +25736,28 @@
         <v>0.0401</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5514065215177106</v>
+        <v>-0.5562846391364662</v>
       </c>
       <c r="J10" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K10" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1325570061302893</v>
+        <v>0.135346255227216</v>
       </c>
       <c r="M10" t="n">
-        <v>8.022465312086432</v>
+        <v>8.038558918928247</v>
       </c>
       <c r="N10" t="n">
-        <v>106.897581875286</v>
+        <v>106.9349222658273</v>
       </c>
       <c r="O10" t="n">
-        <v>10.33912868066192</v>
+        <v>10.34093430333195</v>
       </c>
       <c r="P10" t="n">
-        <v>345.7744529195232</v>
+        <v>345.8242299422325</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25650,28 +25814,28 @@
         <v>0.0402</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6572746015229364</v>
+        <v>-0.6591171085346424</v>
       </c>
       <c r="J11" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K11" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1977380248877337</v>
+        <v>0.1999825424799824</v>
       </c>
       <c r="M11" t="n">
-        <v>7.534677982685263</v>
+        <v>7.540597830640826</v>
       </c>
       <c r="N11" t="n">
-        <v>95.21289254692195</v>
+        <v>95.05113898713152</v>
       </c>
       <c r="O11" t="n">
-        <v>9.757709390370362</v>
+        <v>9.749417366547169</v>
       </c>
       <c r="P11" t="n">
-        <v>346.1135343375755</v>
+        <v>346.1320693911494</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25728,28 +25892,28 @@
         <v>0.039</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7207644808306821</v>
+        <v>-0.7169308830180009</v>
       </c>
       <c r="J12" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K12" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2164168109634976</v>
+        <v>0.2152371991919659</v>
       </c>
       <c r="M12" t="n">
-        <v>7.931276986394583</v>
+        <v>7.959301070793707</v>
       </c>
       <c r="N12" t="n">
-        <v>102.3819044133699</v>
+        <v>102.690333892912</v>
       </c>
       <c r="O12" t="n">
-        <v>10.11839435945101</v>
+        <v>10.13362392695288</v>
       </c>
       <c r="P12" t="n">
-        <v>350.780147334744</v>
+        <v>350.7407989212793</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25806,28 +25970,28 @@
         <v>0.0427</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7312729628048468</v>
+        <v>-0.7318672275347595</v>
       </c>
       <c r="J13" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K13" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2173239899447565</v>
+        <v>0.2189981457923924</v>
       </c>
       <c r="M13" t="n">
-        <v>8.098686146336146</v>
+        <v>8.106035365577</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2404608308343</v>
+        <v>104.0860235673801</v>
       </c>
       <c r="O13" t="n">
-        <v>10.20982178252071</v>
+        <v>10.20225580777997</v>
       </c>
       <c r="P13" t="n">
-        <v>349.1556689290875</v>
+        <v>349.1615462939092</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25884,28 +26048,28 @@
         <v>0.0438</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7310460176967005</v>
+        <v>-0.7235205525928562</v>
       </c>
       <c r="J14" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K14" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2334625869913389</v>
+        <v>0.231903759037294</v>
       </c>
       <c r="M14" t="n">
-        <v>7.537386028989957</v>
+        <v>7.52026760168158</v>
       </c>
       <c r="N14" t="n">
-        <v>95.27269777675575</v>
+        <v>94.77251739836542</v>
       </c>
       <c r="O14" t="n">
-        <v>9.760773421033589</v>
+        <v>9.735117739317046</v>
       </c>
       <c r="P14" t="n">
-        <v>342.2871559569812</v>
+        <v>342.2099846306286</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25962,28 +26126,28 @@
         <v>0.0432</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6810761062240223</v>
+        <v>-0.6830214464402431</v>
       </c>
       <c r="J15" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K15" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1995616303581371</v>
+        <v>0.2027843615162345</v>
       </c>
       <c r="M15" t="n">
-        <v>7.855856748821307</v>
+        <v>7.807647443697884</v>
       </c>
       <c r="N15" t="n">
-        <v>101.1692398206904</v>
+        <v>100.4241853631414</v>
       </c>
       <c r="O15" t="n">
-        <v>10.05829209263135</v>
+        <v>10.02118682408133</v>
       </c>
       <c r="P15" t="n">
-        <v>336.8104253403041</v>
+        <v>336.8302562442653</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26040,28 +26204,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6667433585027556</v>
+        <v>-0.6738198687221041</v>
       </c>
       <c r="J16" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K16" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1921912337960566</v>
+        <v>0.1970391457458802</v>
       </c>
       <c r="M16" t="n">
-        <v>7.824659917092209</v>
+        <v>7.813110875640578</v>
       </c>
       <c r="N16" t="n">
-        <v>100.8597501426422</v>
+        <v>100.6084451688609</v>
       </c>
       <c r="O16" t="n">
-        <v>10.04289550591074</v>
+        <v>10.03037612300061</v>
       </c>
       <c r="P16" t="n">
-        <v>344.3432553750803</v>
+        <v>344.414644691673</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26118,28 +26282,28 @@
         <v>0.0462</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4698343203158527</v>
+        <v>-0.4702621031891628</v>
       </c>
       <c r="J17" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K17" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1181675613272553</v>
+        <v>0.1198000188618181</v>
       </c>
       <c r="M17" t="n">
-        <v>7.292964336241277</v>
+        <v>7.259091230793976</v>
       </c>
       <c r="N17" t="n">
-        <v>87.03904587476762</v>
+        <v>86.48239014985953</v>
       </c>
       <c r="O17" t="n">
-        <v>9.329471896885034</v>
+        <v>9.299590859272225</v>
       </c>
       <c r="P17" t="n">
-        <v>343.748668236661</v>
+        <v>343.7529938123322</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26196,28 +26360,28 @@
         <v>0.0443</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5035337763561187</v>
+        <v>-0.5010074923062934</v>
       </c>
       <c r="J18" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K18" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1480620821792382</v>
+        <v>0.1483958639065034</v>
       </c>
       <c r="M18" t="n">
-        <v>6.968858566885303</v>
+        <v>6.94219643659136</v>
       </c>
       <c r="N18" t="n">
-        <v>78.71026345137787</v>
+        <v>78.255693489918</v>
       </c>
       <c r="O18" t="n">
-        <v>8.871880491270037</v>
+        <v>8.84622481570065</v>
       </c>
       <c r="P18" t="n">
-        <v>342.1105292709965</v>
+        <v>342.0847540289177</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26274,28 +26438,28 @@
         <v>0.0432</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5113594603114001</v>
+        <v>-0.508521932822396</v>
       </c>
       <c r="J19" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K19" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1747228258845113</v>
+        <v>0.1748182481412933</v>
       </c>
       <c r="M19" t="n">
-        <v>6.454111434310925</v>
+        <v>6.433169865612086</v>
       </c>
       <c r="N19" t="n">
-        <v>66.82258411376817</v>
+        <v>66.46427579606818</v>
       </c>
       <c r="O19" t="n">
-        <v>8.17450818788312</v>
+        <v>8.152562529417862</v>
       </c>
       <c r="P19" t="n">
-        <v>342.0041578156892</v>
+        <v>341.9749705232481</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26352,28 +26516,28 @@
         <v>0.0502</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3567136253491172</v>
+        <v>-0.3559164588556621</v>
       </c>
       <c r="J20" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K20" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09511741176953403</v>
+        <v>0.09580196008209851</v>
       </c>
       <c r="M20" t="n">
-        <v>6.362542043313273</v>
+        <v>6.340318375599892</v>
       </c>
       <c r="N20" t="n">
-        <v>65.39246244434668</v>
+        <v>65.00708077504568</v>
       </c>
       <c r="O20" t="n">
-        <v>8.086560606608144</v>
+        <v>8.062696867366755</v>
       </c>
       <c r="P20" t="n">
-        <v>349.1350755164123</v>
+        <v>349.126821825742</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26430,28 +26594,28 @@
         <v>0.0463</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2014391711569856</v>
+        <v>-0.207740021012827</v>
       </c>
       <c r="J21" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K21" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03163094981344228</v>
+        <v>0.03393243512959243</v>
       </c>
       <c r="M21" t="n">
-        <v>6.310222370552026</v>
+        <v>6.296265074263495</v>
       </c>
       <c r="N21" t="n">
-        <v>67.02090680790928</v>
+        <v>66.73826864423222</v>
       </c>
       <c r="O21" t="n">
-        <v>8.186629758814631</v>
+        <v>8.169349340322778</v>
       </c>
       <c r="P21" t="n">
-        <v>350.5532180997695</v>
+        <v>350.6174587112282</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26489,7 +26653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V312"/>
+  <dimension ref="A1:V314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58773,6 +58937,230 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:00:46+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-41.31742517882369,175.86270206141953</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-41.31785935328423,175.86197838558465</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-41.31834493757827,175.86136133781886</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-41.318799199997386,175.8606886575283</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-41.319391102397745,175.8602317187398</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-41.31964466485164,175.8593185382325</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-41.3200686122191,175.85865092642447</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-41.32048159361764,175.85796262001688</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-41.32086180825631,175.85725147777876</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-41.32120874669698,175.85652219802736</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-41.32150597599988,175.85574897793435</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>-41.32173508688115,175.85490898574454</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>-41.32205602421026,175.8541148886271</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>-41.32220611903448,175.85324720832668</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>-41.32237231132674,175.8523749791849</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>-41.32274331665167,175.85157227416877</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>-41.32307390633614,175.85076274850755</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>-41.323434333762634,175.85000638190238</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>-41.32382974730685,175.84927555386946</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>-41.32421473857665,175.84853463683922</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-41.3174038872004,175.86266369673092</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-41.317874463579884,175.86200368528827</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-41.31837939174309,175.86141149757</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-41.31889314744111,175.8608335054995</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-41.31944546268776,175.86031647611458</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-41.31975534597353,175.8594576632443</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-41.32013592111595,175.85872626903281</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-41.32055066812467,175.8580335469346</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-41.32100985801237,175.85738426307068</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-41.321340688494246,175.85661859739952</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-41.321697906063335,175.85586362114995</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-41.32188553482324,175.85499452051837</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-41.32205197017586,175.85411258380225</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-41.32221305487123,175.85325055775454</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>-41.322476602609285,175.8524254210572</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>-41.32278028260486,175.85159728452302</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>-41.32312167964423,175.85080283555072</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>-41.323485756127965,175.85004863817474</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>-41.32387887064752,175.8493168804162</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>-41.32424539058418,175.84856321612995</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0349/nzd0349.xlsx
+++ b/data/nzd0349/nzd0349.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V314"/>
+  <dimension ref="A1:V315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21750,6 +21750,78 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:56+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>352.36</v>
+      </c>
+      <c r="C315" t="n">
+        <v>335.4333333333333</v>
+      </c>
+      <c r="D315" t="n">
+        <v>338.2933333333333</v>
+      </c>
+      <c r="E315" t="n">
+        <v>343.3633333333333</v>
+      </c>
+      <c r="F315" t="n">
+        <v>346.39</v>
+      </c>
+      <c r="G315" t="n">
+        <v>332.72</v>
+      </c>
+      <c r="H315" t="n">
+        <v>321.85</v>
+      </c>
+      <c r="I315" t="n">
+        <v>313.73</v>
+      </c>
+      <c r="J315" t="n">
+        <v>326.87</v>
+      </c>
+      <c r="K315" t="n">
+        <v>330.92</v>
+      </c>
+      <c r="L315" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="M315" t="n">
+        <v>324.63</v>
+      </c>
+      <c r="N315" t="n">
+        <v>316.32</v>
+      </c>
+      <c r="O315" t="n">
+        <v>318.87</v>
+      </c>
+      <c r="P315" t="n">
+        <v>327.5788888888889</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="R315" t="n">
+        <v>326.13</v>
+      </c>
+      <c r="S315" t="n">
+        <v>327.35</v>
+      </c>
+      <c r="T315" t="n">
+        <v>337.1988888888889</v>
+      </c>
+      <c r="U315" t="n">
+        <v>339.5988888888889</v>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21761,7 +21833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24939,6 +25011,16 @@
       </c>
       <c r="B317" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -25112,28 +25194,28 @@
         <v>0.0266</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4043887039140785</v>
+        <v>-0.4110105164705427</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08886266281720656</v>
+        <v>0.09181638415398796</v>
       </c>
       <c r="M2" t="n">
-        <v>7.573322205084853</v>
+        <v>7.579544309652598</v>
       </c>
       <c r="N2" t="n">
-        <v>91.56884767647547</v>
+        <v>91.57632144495319</v>
       </c>
       <c r="O2" t="n">
-        <v>9.569161283857403</v>
+        <v>9.569551789135852</v>
       </c>
       <c r="P2" t="n">
-        <v>372.5322270898226</v>
+        <v>372.5994407792946</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25190,28 +25272,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3724530945808573</v>
+        <v>-0.3817201390989858</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07741328596434682</v>
+        <v>0.08097679730631124</v>
       </c>
       <c r="M3" t="n">
-        <v>7.424105523175344</v>
+        <v>7.443137274878632</v>
       </c>
       <c r="N3" t="n">
-        <v>91.28789282774959</v>
+        <v>91.63031840990931</v>
       </c>
       <c r="O3" t="n">
-        <v>9.554469782659297</v>
+        <v>9.572372663551567</v>
       </c>
       <c r="P3" t="n">
-        <v>358.7802547396561</v>
+        <v>358.8738218255435</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25268,28 +25350,28 @@
         <v>0.0312</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4193688381844635</v>
+        <v>-0.426284947686124</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09414190566835812</v>
+        <v>0.09725222644800413</v>
       </c>
       <c r="M4" t="n">
-        <v>7.511536084202743</v>
+        <v>7.518544208809481</v>
       </c>
       <c r="N4" t="n">
-        <v>94.08677779645814</v>
+        <v>94.11400163855436</v>
       </c>
       <c r="O4" t="n">
-        <v>9.699833905611897</v>
+        <v>9.701237118973763</v>
       </c>
       <c r="P4" t="n">
-        <v>359.2545983254142</v>
+        <v>359.3240451910955</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25346,28 +25428,28 @@
         <v>0.0319</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4740685893488313</v>
+        <v>-0.4818067475992008</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09730863227178699</v>
+        <v>0.1004684904022143</v>
       </c>
       <c r="M5" t="n">
-        <v>8.601817036285922</v>
+        <v>8.611158783086893</v>
       </c>
       <c r="N5" t="n">
-        <v>114.6548174609542</v>
+        <v>114.7033378148803</v>
       </c>
       <c r="O5" t="n">
-        <v>10.70769898068461</v>
+        <v>10.70996441706882</v>
       </c>
       <c r="P5" t="n">
-        <v>366.9842296386439</v>
+        <v>367.0625310588211</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25424,28 +25506,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3941207580321278</v>
+        <v>-0.3983260154299202</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K6" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07215048160856641</v>
+        <v>0.07398604188083802</v>
       </c>
       <c r="M6" t="n">
-        <v>8.384340508319395</v>
+        <v>8.377425661701411</v>
       </c>
       <c r="N6" t="n">
-        <v>108.8168382389882</v>
+        <v>108.5620646880269</v>
       </c>
       <c r="O6" t="n">
-        <v>10.43153096333363</v>
+        <v>10.41931210243876</v>
       </c>
       <c r="P6" t="n">
-        <v>362.7434179159492</v>
+        <v>362.7862021567803</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25502,28 +25584,28 @@
         <v>0.0429</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3825598915486533</v>
+        <v>-0.3823157505722788</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K7" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05130669800814036</v>
+        <v>0.05159373711333948</v>
       </c>
       <c r="M7" t="n">
-        <v>9.392806933219001</v>
+        <v>9.36135405545536</v>
       </c>
       <c r="N7" t="n">
-        <v>149.3816390532683</v>
+        <v>148.8616050166866</v>
       </c>
       <c r="O7" t="n">
-        <v>12.22217816321086</v>
+        <v>12.20088541937374</v>
       </c>
       <c r="P7" t="n">
-        <v>342.2339213336488</v>
+        <v>342.2314849087875</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25580,28 +25662,28 @@
         <v>0.0416</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.456081203625718</v>
+        <v>-0.4596773635934873</v>
       </c>
       <c r="J8" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K8" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0866493858366526</v>
+        <v>0.08841571838106677</v>
       </c>
       <c r="M8" t="n">
-        <v>8.182482595666055</v>
+        <v>8.174343275471909</v>
       </c>
       <c r="N8" t="n">
-        <v>119.2107100895001</v>
+        <v>118.8882619644978</v>
       </c>
       <c r="O8" t="n">
-        <v>10.91836572429684</v>
+        <v>10.90358940736938</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9128557737448</v>
+        <v>338.9491885388985</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25658,28 +25740,28 @@
         <v>0.0409</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4626725955182376</v>
+        <v>-0.4735738920333729</v>
       </c>
       <c r="J9" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K9" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0901698229129555</v>
+        <v>0.09402453538039313</v>
       </c>
       <c r="M9" t="n">
-        <v>8.326764243884087</v>
+        <v>8.361591717124741</v>
       </c>
       <c r="N9" t="n">
-        <v>116.3251852546226</v>
+        <v>116.8019486536298</v>
       </c>
       <c r="O9" t="n">
-        <v>10.78541539555258</v>
+        <v>10.80749502214226</v>
       </c>
       <c r="P9" t="n">
-        <v>341.5837885375564</v>
+        <v>341.6952169988387</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25736,28 +25818,28 @@
         <v>0.0401</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5562846391364662</v>
+        <v>-0.559336399813554</v>
       </c>
       <c r="J10" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K10" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L10" t="n">
-        <v>0.135346255227216</v>
+        <v>0.1373619962091283</v>
       </c>
       <c r="M10" t="n">
-        <v>8.038558918928247</v>
+        <v>8.027798566857939</v>
       </c>
       <c r="N10" t="n">
-        <v>106.9349222658273</v>
+        <v>106.63177750643</v>
       </c>
       <c r="O10" t="n">
-        <v>10.34093430333195</v>
+        <v>10.32626638753959</v>
       </c>
       <c r="P10" t="n">
-        <v>345.8242299422325</v>
+        <v>345.8555976323199</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25814,28 +25896,28 @@
         <v>0.0402</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6591171085346424</v>
+        <v>-0.6579205499145657</v>
       </c>
       <c r="J11" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K11" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1999825424799824</v>
+        <v>0.2004813470121181</v>
       </c>
       <c r="M11" t="n">
-        <v>7.540597830640826</v>
+        <v>7.520413048464769</v>
       </c>
       <c r="N11" t="n">
-        <v>95.05113898713152</v>
+        <v>94.72785023943625</v>
       </c>
       <c r="O11" t="n">
-        <v>9.749417366547169</v>
+        <v>9.732823343687906</v>
       </c>
       <c r="P11" t="n">
-        <v>346.1320693911494</v>
+        <v>346.1198758356549</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25892,28 +25974,28 @@
         <v>0.039</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7169308830180009</v>
+        <v>-0.7145655090903916</v>
       </c>
       <c r="J12" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K12" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2152371991919659</v>
+        <v>0.2152155454715443</v>
       </c>
       <c r="M12" t="n">
-        <v>7.959301070793707</v>
+        <v>7.943522943374357</v>
       </c>
       <c r="N12" t="n">
-        <v>102.690333892912</v>
+        <v>102.3639432090476</v>
       </c>
       <c r="O12" t="n">
-        <v>10.13362392695288</v>
+        <v>10.11750676842114</v>
       </c>
       <c r="P12" t="n">
-        <v>350.7407989212793</v>
+        <v>350.7166213443155</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25970,28 +26052,28 @@
         <v>0.0427</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7318672275347595</v>
+        <v>-0.7357125936875618</v>
       </c>
       <c r="J13" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K13" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2189981457923924</v>
+        <v>0.2218075036976025</v>
       </c>
       <c r="M13" t="n">
-        <v>8.106035365577</v>
+        <v>8.095718147021575</v>
       </c>
       <c r="N13" t="n">
-        <v>104.0860235673801</v>
+        <v>103.8187426582764</v>
       </c>
       <c r="O13" t="n">
-        <v>10.20225580777997</v>
+        <v>10.18914827933505</v>
       </c>
       <c r="P13" t="n">
-        <v>349.1615462939092</v>
+        <v>349.201099817422</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26048,28 +26130,28 @@
         <v>0.0438</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7235205525928562</v>
+        <v>-0.7285008462959888</v>
       </c>
       <c r="J14" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K14" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L14" t="n">
-        <v>0.231903759037294</v>
+        <v>0.235256538691223</v>
       </c>
       <c r="M14" t="n">
-        <v>7.52026760168158</v>
+        <v>7.519521822045585</v>
       </c>
       <c r="N14" t="n">
-        <v>94.77251739836542</v>
+        <v>94.60996826909135</v>
       </c>
       <c r="O14" t="n">
-        <v>9.735117739317046</v>
+        <v>9.726765560508351</v>
       </c>
       <c r="P14" t="n">
-        <v>342.2099846306286</v>
+        <v>342.2612048396833</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26126,28 +26208,28 @@
         <v>0.0432</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6830214464402431</v>
+        <v>-0.6832459601322761</v>
       </c>
       <c r="J15" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K15" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2027843615162345</v>
+        <v>0.2040521108278274</v>
       </c>
       <c r="M15" t="n">
-        <v>7.807647443697884</v>
+        <v>7.779651503806099</v>
       </c>
       <c r="N15" t="n">
-        <v>100.4241853631414</v>
+        <v>100.0484496800969</v>
       </c>
       <c r="O15" t="n">
-        <v>10.02118682408133</v>
+        <v>10.00242219065447</v>
       </c>
       <c r="P15" t="n">
-        <v>336.8302562442653</v>
+        <v>336.8325525901307</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26204,28 +26286,28 @@
         <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6738198687221041</v>
+        <v>-0.6734393328548165</v>
       </c>
       <c r="J16" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1970391457458802</v>
+        <v>0.1979862259322254</v>
       </c>
       <c r="M16" t="n">
-        <v>7.813110875640578</v>
+        <v>7.78763204277961</v>
       </c>
       <c r="N16" t="n">
-        <v>100.6084451688609</v>
+        <v>100.2565396374576</v>
       </c>
       <c r="O16" t="n">
-        <v>10.03037612300061</v>
+        <v>10.012818765835</v>
       </c>
       <c r="P16" t="n">
-        <v>344.414644691673</v>
+        <v>344.4107881182387</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26282,28 +26364,28 @@
         <v>0.0462</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4702621031891628</v>
+        <v>-0.4723336313746618</v>
       </c>
       <c r="J17" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K17" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1198000188618181</v>
+        <v>0.1214369700108467</v>
       </c>
       <c r="M17" t="n">
-        <v>7.259091230793976</v>
+        <v>7.245186552385429</v>
       </c>
       <c r="N17" t="n">
-        <v>86.48239014985953</v>
+        <v>86.22077315630602</v>
       </c>
       <c r="O17" t="n">
-        <v>9.299590859272225</v>
+        <v>9.285514156809306</v>
       </c>
       <c r="P17" t="n">
-        <v>343.7529938123322</v>
+        <v>343.7742366340124</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26360,28 +26442,28 @@
         <v>0.0443</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5010074923062934</v>
+        <v>-0.5029979729569387</v>
       </c>
       <c r="J18" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K18" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1483958639065034</v>
+        <v>0.1502261600965864</v>
       </c>
       <c r="M18" t="n">
-        <v>6.94219643659136</v>
+        <v>6.928534397986606</v>
       </c>
       <c r="N18" t="n">
-        <v>78.255693489918</v>
+        <v>78.01525247156506</v>
       </c>
       <c r="O18" t="n">
-        <v>8.84622481570065</v>
+        <v>8.832624325282099</v>
       </c>
       <c r="P18" t="n">
-        <v>342.0847540289177</v>
+        <v>342.1050625879177</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26438,28 +26520,28 @@
         <v>0.0432</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.508521932822396</v>
+        <v>-0.5094962931911916</v>
       </c>
       <c r="J19" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K19" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1748182481412933</v>
+        <v>0.1763215293217693</v>
       </c>
       <c r="M19" t="n">
-        <v>6.433169865612086</v>
+        <v>6.415533815672299</v>
       </c>
       <c r="N19" t="n">
-        <v>66.46427579606818</v>
+        <v>66.23881183148104</v>
       </c>
       <c r="O19" t="n">
-        <v>8.152562529417862</v>
+        <v>8.138722985301873</v>
       </c>
       <c r="P19" t="n">
-        <v>341.9749705232481</v>
+        <v>341.9849946075327</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26516,28 +26598,28 @@
         <v>0.0502</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3559164588556621</v>
+        <v>-0.3577134733501527</v>
       </c>
       <c r="J20" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K20" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09580196008209851</v>
+        <v>0.09723149639352258</v>
       </c>
       <c r="M20" t="n">
-        <v>6.340318375599892</v>
+        <v>6.32793255195384</v>
       </c>
       <c r="N20" t="n">
-        <v>65.00708077504568</v>
+        <v>64.80429010727514</v>
       </c>
       <c r="O20" t="n">
-        <v>8.062696867366755</v>
+        <v>8.050111186019429</v>
       </c>
       <c r="P20" t="n">
-        <v>349.126821825742</v>
+        <v>349.145312172538</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26594,28 +26676,28 @@
         <v>0.0463</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.207740021012827</v>
+        <v>-0.2114641713158024</v>
       </c>
       <c r="J21" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K21" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03393243512959243</v>
+        <v>0.03529267699692329</v>
       </c>
       <c r="M21" t="n">
-        <v>6.296265074263495</v>
+        <v>6.291969332301493</v>
       </c>
       <c r="N21" t="n">
-        <v>66.73826864423222</v>
+        <v>66.61597348150222</v>
       </c>
       <c r="O21" t="n">
-        <v>8.169349340322778</v>
+        <v>8.161860907997772</v>
       </c>
       <c r="P21" t="n">
-        <v>350.6174587112282</v>
+        <v>350.6555602105614</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26653,7 +26735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V314"/>
+  <dimension ref="A1:V315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59161,6 +59243,118 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:56+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-41.31736866794386,175.86260023639792</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-41.3178086564286,175.86189350220005</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-41.31832335571981,175.86132991813062</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-41.31882720226589,175.86073183129187</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-41.31937208794562,175.86020207188002</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-41.319758155468314,175.859461194759</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-41.32010495450957,175.85869160635332</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-41.320460402488564,175.85794086063368</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-41.320928269814154,175.8573110868149</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-41.32129959889583,175.8565885764492</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-41.32160802057382,175.85580993086248</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-41.32176712902553,175.85492720275565</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-41.32195020562041,175.85405472809273</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-41.32221804529028,175.85325296770918</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>-41.322472299032285,175.85242333957106</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>-41.32273922714232,175.8515695072984</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>-41.323060517635426,175.85075151393292</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>-41.32343226768509,175.85000468410715</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>-41.323828936467535,175.84927487172615</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>-41.324222716609285,175.84854207538663</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0349/nzd0349.xlsx
+++ b/data/nzd0349/nzd0349.xlsx
@@ -25185,13 +25185,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0243</v>
+        <v>0.0295</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0266</v>
+        <v>0.0312</v>
       </c>
       <c r="I2" t="n">
         <v>-0.411010516470543</v>
@@ -25263,13 +25263,13 @@
         <v>0.0526472168613995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.029</v>
+        <v>0.0362</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0309</v>
+        <v>0.0413</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3817410539394521</v>
@@ -25341,13 +25341,13 @@
         <v>0.1053375385801541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0292</v>
+        <v>0.0357</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0312</v>
+        <v>0.0455</v>
       </c>
       <c r="I4" t="n">
         <v>-0.4263138747723312</v>
@@ -25419,13 +25419,13 @@
         <v>0.1579905844672333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0293</v>
+        <v>0.0409</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0319</v>
+        <v>0.0496</v>
       </c>
       <c r="I5" t="n">
         <v>-0.4818335110141989</v>
@@ -25497,13 +25497,13 @@
         <v>0.2105368578795989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0247</v>
+        <v>0.0345</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0265</v>
+        <v>0.0358</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3983260154299206</v>
@@ -25575,13 +25575,13 @@
         <v>0.2631464153147971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0345</v>
+        <v>0.0393</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0429</v>
+        <v>0.0496</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3823157505722788</v>
@@ -25653,13 +25653,13 @@
         <v>0.3158367331847953</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0341</v>
+        <v>0.0481</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0416</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>-0.459615975675302</v>
@@ -25731,13 +25731,13 @@
         <v>0.3685012046272524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0339</v>
+        <v>0.0439</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0409</v>
+        <v>0.0558</v>
       </c>
       <c r="I9" t="n">
         <v>-0.4735150627524839</v>
@@ -25809,13 +25809,13 @@
         <v>0.4211915263465714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0342</v>
+        <v>0.0437</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0401</v>
+        <v>0.0568</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5592796805723874</v>
@@ -25887,13 +25887,13 @@
         <v>0.4738230412326187</v>
       </c>
       <c r="F11" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0342</v>
+        <v>0.0422</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0402</v>
+        <v>0.0529</v>
       </c>
       <c r="I11" t="n">
         <v>-0.657861375308216</v>
@@ -25965,13 +25965,13 @@
         <v>0.5264313830387954</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0338</v>
+        <v>0.0398</v>
       </c>
       <c r="H12" t="n">
-        <v>0.039</v>
+        <v>0.0493</v>
       </c>
       <c r="I12" t="n">
         <v>-0.7144982558211047</v>
@@ -26043,13 +26043,13 @@
         <v>0.5791217047576768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0336</v>
+        <v>0.0391</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0427</v>
+        <v>0.0486</v>
       </c>
       <c r="I13" t="n">
         <v>-0.7356464130203512</v>
@@ -26121,13 +26121,13 @@
         <v>0.6318120264765689</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0369</v>
+        <v>0.0464</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0438</v>
+        <v>0.0545</v>
       </c>
       <c r="I14" t="n">
         <v>-0.7285008462959888</v>
@@ -26199,13 +26199,13 @@
         <v>0.6845023481954502</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0349</v>
+        <v>0.0484</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0432</v>
+        <v>0.0574</v>
       </c>
       <c r="I15" t="n">
         <v>-0.6832459601322761</v>
@@ -26277,13 +26277,13 @@
         <v>0.7371659165885706</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0398</v>
+        <v>0.0554</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0477</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>-0.6734421333051671</v>
@@ -26355,13 +26355,13 @@
         <v>0.7895449431778682</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0391</v>
+        <v>0.0498</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0462</v>
+        <v>0.0584</v>
       </c>
       <c r="I17" t="n">
         <v>-0.4723336313746618</v>
@@ -26433,13 +26433,13 @@
         <v>0.8421861749708416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0391</v>
+        <v>0.0536</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0443</v>
+        <v>0.0626</v>
       </c>
       <c r="I18" t="n">
         <v>-0.5029979729569387</v>
@@ -26511,13 +26511,13 @@
         <v>0.894876496689839</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.039</v>
+        <v>0.053</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0432</v>
+        <v>0.0595</v>
       </c>
       <c r="I19" t="n">
         <v>-0.5094962931911916</v>
@@ -26589,13 +26589,13 @@
         <v>0.9475665468209489</v>
       </c>
       <c r="F20" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0435</v>
+        <v>0.0552</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0502</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="I20" t="n">
         <v>-0.3577078706951574</v>
@@ -26667,13 +26667,13 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0399</v>
+        <v>0.0497</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0463</v>
+        <v>0.0574</v>
       </c>
       <c r="I21" t="n">
         <v>-0.2114662558308001</v>
